--- a/doc/input.xlsx
+++ b/doc/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiida\github\builder\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D36E8A1-9136-40A9-A108-204952C30DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9742950-8A51-4188-BAFC-3248DF8D5B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Locale" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Field!$A$1:$W$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Field!$A$1:$X$181</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="572">
   <si>
     <t>classId</t>
     <phoneticPr fontId="1"/>
@@ -2740,6 +2740,73 @@
   </si>
   <si>
     <t>nameです</t>
+  </si>
+  <si>
+    <t>isContainer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主保持SET</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SET型のみ使用。このSETが保持要素の主たる保持先か否かを示す。</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ホジヨウソ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ホジサキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値型のみ使用</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isContainer:BOOLEAN</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3209,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F11A32-C39A-4086-9806-A9899284A4EA}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4541,7 +4608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356987F0-DBC3-48CB-9C1C-2E79A5B87A13}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4851,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F7B46-C5DA-4B16-AA9F-5D00A52EB62D}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6063,13 +6130,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W180"/>
+  <dimension ref="A1:X181"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U159" sqref="U159"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6088,15 +6155,15 @@
     <col min="12" max="12" width="5.75" style="3" customWidth="1"/>
     <col min="13" max="13" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="12.58203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.4140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="28.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="23.58203125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="8.6640625" style="3"/>
+    <col min="15" max="20" width="12.58203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.4140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="28.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="23.58203125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -6155,19 +6222,22 @@
         <v>162</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -6212,17 +6282,18 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A180" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A181" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -6263,15 +6334,16 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6314,13 +6386,14 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6355,11 +6428,11 @@
         <f>IF(ISBLANK(L5),"",VLOOKUP(L5,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L5,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6397,11 +6470,11 @@
       <c r="O6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6439,11 +6512,11 @@
       <c r="O7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6481,11 +6554,11 @@
       <c r="O8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6520,11 +6593,14 @@
         <f>IF(ISBLANK(L9),"",VLOOKUP(L9,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L9,Field!$A:$D,4,FALSE))</f>
         <v>Class.owner</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="T9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6552,18 +6628,21 @@
         <v/>
       </c>
       <c r="L10" s="3">
-        <f>$A$69</f>
-        <v>68</v>
+        <f>$A$70</f>
+        <v>69</v>
       </c>
       <c r="M10" s="3" t="str">
         <f>IF(ISBLANK(L10),"",VLOOKUP(L10,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L10,Field!$A:$D,4,FALSE))</f>
         <v>Enum.owner</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="T10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6591,18 +6670,21 @@
         <v/>
       </c>
       <c r="L11" s="3">
-        <f>$A$93</f>
-        <v>92</v>
+        <f>$A$94</f>
+        <v>93</v>
       </c>
       <c r="M11" s="3" t="str">
         <f>IF(ISBLANK(L11),"",VLOOKUP(L11,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L11,Field!$A:$D,4,FALSE))</f>
         <v>Message.owner</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="T11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6630,18 +6712,21 @@
         <v/>
       </c>
       <c r="L12" s="3">
-        <f>$A$101</f>
-        <v>100</v>
+        <f>$A$102</f>
+        <v>101</v>
       </c>
       <c r="M12" s="3" t="str">
         <f>IF(ISBLANK(L12),"",VLOOKUP(L12,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L12,Field!$A:$D,4,FALSE))</f>
         <v>Style.owner</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="T12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6669,16 +6754,21 @@
         <v/>
       </c>
       <c r="L13" s="3">
-        <f>$A$122</f>
-        <v>121</v>
+        <f>$A$123</f>
+        <v>122</v>
       </c>
       <c r="M13" s="3" t="str">
         <f>IF(ISBLANK(L13),"",VLOOKUP(L13,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L13,Field!$A:$D,4,FALSE))</f>
         <v>Form.owner</v>
       </c>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="T13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6706,18 +6796,21 @@
         <v/>
       </c>
       <c r="L14" s="3">
-        <f>$A$148</f>
-        <v>147</v>
+        <f>$A$149</f>
+        <v>148</v>
       </c>
       <c r="M14" s="3" t="str">
         <f>IF(ISBLANK(L14),"",VLOOKUP(L14,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L14,Field!$A:$D,4,FALSE))</f>
         <v>Locale.owner</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="T14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6752,11 +6845,14 @@
         <f>IF(ISBLANK(L15),"",VLOOKUP(L15,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L15,Field!$A:$D,4,FALSE))</f>
         <v>ProjectI18n.owner</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="T15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6804,13 +6900,14 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="8" t="s">
+      <c r="U16" s="5"/>
+      <c r="V16" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6848,11 +6945,11 @@
       <c r="N17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="V17" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6890,11 +6987,11 @@
       <c r="O18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="V18" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6932,11 +7029,11 @@
       <c r="O19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="V19" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6981,15 +7078,16 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="5"/>
+      <c r="X20" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7035,13 +7133,14 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="7" t="s">
+      <c r="U21" s="6"/>
+      <c r="V21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7084,13 +7183,14 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="7" t="s">
+      <c r="U22" s="6"/>
+      <c r="V22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7125,14 +7225,14 @@
         <f>IF(ISBLANK(L23),"",VLOOKUP(L23,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L23,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="V23" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7167,14 +7267,14 @@
         <f>IF(ISBLANK(L24),"",VLOOKUP(L24,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L24,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="V24" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7209,11 +7309,11 @@
         <f>IF(ISBLANK(L25),"",VLOOKUP(L25,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L25,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="V25" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7251,11 +7351,11 @@
       <c r="O26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="V26" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7293,11 +7393,11 @@
       <c r="O27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="V27" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7332,11 +7432,14 @@
         <f>IF(ISBLANK(L28),"",VLOOKUP(L28,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L28,Field!$A:$D,4,FALSE))</f>
         <v>Field.owner</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="T28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7364,18 +7467,21 @@
         <v/>
       </c>
       <c r="L29" s="3">
-        <f>$A$61</f>
-        <v>60</v>
+        <f>$A$62</f>
+        <v>61</v>
       </c>
       <c r="M29" s="3" t="str">
         <f>IF(ISBLANK(L29),"",VLOOKUP(L29,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L29,Field!$A:$D,4,FALSE))</f>
         <v>Query.owner</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="T29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7410,11 +7516,14 @@
         <f>IF(ISBLANK(L30),"",VLOOKUP(L30,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L30,Field!$A:$D,4,FALSE))</f>
         <v>ClassI18n.owner</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="T30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7462,13 +7571,14 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="8" t="s">
+      <c r="U31" s="5"/>
+      <c r="V31" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7506,11 +7616,11 @@
       <c r="N32" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U32" s="7" t="s">
+      <c r="V32" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7548,11 +7658,11 @@
       <c r="O33" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="V33" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7590,11 +7700,11 @@
       <c r="O34" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U34" s="7" t="s">
+      <c r="V34" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7639,15 +7749,16 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
-      <c r="U35" s="8" t="s">
+      <c r="U35" s="8"/>
+      <c r="V35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="V35" s="8"/>
-      <c r="W35" s="5" t="s">
+      <c r="W35" s="8"/>
+      <c r="X35" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7693,13 +7804,14 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="7" t="s">
+      <c r="U36" s="6"/>
+      <c r="V36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7730,11 +7842,11 @@
         <f>IF(ISBLANK(L37),"",VLOOKUP(L37,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L37,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="V37" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7769,11 +7881,11 @@
         <f>IF(ISBLANK(L38),"",VLOOKUP(L38,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L38,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U38" s="7" t="s">
+      <c r="V38" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7807,11 +7919,11 @@
         <f>IF(ISBLANK(L39),"",VLOOKUP(L39,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L39,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U39" s="7" t="s">
+      <c r="V39" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7845,11 +7957,11 @@
         <f>IF(ISBLANK(L40),"",VLOOKUP(L40,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L40,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U40" s="7" t="s">
+      <c r="V40" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7884,11 +7996,11 @@
         <f>IF(ISBLANK(L41),"",VLOOKUP(L41,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L41,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="V41" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7923,11 +8035,11 @@
         <f>IF(ISBLANK(L42),"",VLOOKUP(L42,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L42,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U42" s="7" t="s">
+      <c r="V42" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7962,11 +8074,11 @@
         <f>IF(ISBLANK(L43),"",VLOOKUP(L43,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L43,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U43" s="7" t="s">
+      <c r="V43" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7997,11 +8109,11 @@
         <f>IF(ISBLANK(L44),"",VLOOKUP(L44,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L44,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U44" s="7" t="s">
+      <c r="V44" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -8032,11 +8144,11 @@
         <f>IF(ISBLANK(L45),"",VLOOKUP(L45,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L45,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U45" s="7" t="s">
+      <c r="V45" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8067,11 +8179,14 @@
         <f>IF(ISBLANK(L46),"",VLOOKUP(L46,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L46,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U46" s="7" t="s">
+      <c r="V46" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="W46" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -8102,11 +8217,14 @@
         <f>IF(ISBLANK(L47),"",VLOOKUP(L47,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L47,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U47" s="7" t="s">
+      <c r="V47" s="7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="W47" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -8137,11 +8255,14 @@
         <f>IF(ISBLANK(L48),"",VLOOKUP(L48,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L48,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U48" s="7" t="s">
+      <c r="V48" s="7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="W48" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -8172,11 +8293,14 @@
         <f>IF(ISBLANK(L49),"",VLOOKUP(L49,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L49,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U49" s="7" t="s">
+      <c r="V49" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="W49" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -8190,31 +8314,19 @@
         <v>Field</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>261</v>
+        <v>565</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="3" t="str">
-        <f>IF(ISBLANK(H50),"",VLOOKUP(H50,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K50" s="3" t="str">
-        <f>IF(ISBLANK(J50),"",VLOOKUP(J50,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M50" s="3" t="str">
-        <f>IF(ISBLANK(L50),"",VLOOKUP(L50,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L50,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>566</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8228,7 +8340,7 @@
         <v>Field</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>41</v>
@@ -8245,11 +8357,14 @@
         <f>IF(ISBLANK(L51),"",VLOOKUP(L51,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L51,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U51" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="V51" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -8263,10 +8378,10 @@
         <v>Field</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I52" s="3" t="str">
         <f>IF(ISBLANK(H52),"",VLOOKUP(H52,Class!$A:$C,3,FALSE))</f>
@@ -8280,14 +8395,11 @@
         <f>IF(ISBLANK(L52),"",VLOOKUP(L52,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L52,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U52" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="V52" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8301,7 +8413,7 @@
         <v>Field</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>50</v>
@@ -8321,12 +8433,12 @@
       <c r="O53" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U53" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="A54" s="6">
+      <c r="V53" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -8339,10 +8451,10 @@
         <v>Field</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="I54" s="3" t="str">
         <f>IF(ISBLANK(H54),"",VLOOKUP(H54,Class!$A:$C,3,FALSE))</f>
@@ -8352,115 +8464,115 @@
         <f>IF(ISBLANK(J54),"",VLOOKUP(J54,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L54" s="3">
-        <f>$A$55</f>
-        <v>54</v>
-      </c>
       <c r="M54" s="3" t="str">
         <f>IF(ISBLANK(L54),"",VLOOKUP(L54,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L54,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <f>Class!$A$6</f>
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f>VLOOKUP(B55,Class!$A:$C,3,FALSE)</f>
+        <v>Field</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="3" t="str">
+        <f>IF(ISBLANK(H55),"",VLOOKUP(H55,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f>IF(ISBLANK(J55),"",VLOOKUP(J55,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L55" s="3">
+        <f>$A$56</f>
+        <v>55</v>
+      </c>
+      <c r="M55" s="3" t="str">
+        <f>IF(ISBLANK(L55),"",VLOOKUP(L55,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L55,Field!$A:$D,4,FALSE))</f>
         <v>FieldI18n.owner</v>
       </c>
-      <c r="U54" s="7" t="s">
+      <c r="T55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
-      <c r="A55" s="5">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
+    <row r="56" spans="1:24">
+      <c r="A56" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
         <f>Class!$A$7</f>
         <v>6</v>
       </c>
-      <c r="C55" s="5" t="str">
-        <f>VLOOKUP(B55,Class!$A:$C,3,FALSE)</f>
+      <c r="C56" s="5" t="str">
+        <f>VLOOKUP(B56,Class!$A:$C,3,FALSE)</f>
         <v>FieldI18n</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5">
         <f>Class!$A$6</f>
         <v>5</v>
       </c>
-      <c r="I55" s="5" t="str">
-        <f>IF(ISBLANK(H55),"",VLOOKUP(H55,Class!$A:$C,3,FALSE))</f>
+      <c r="I56" s="5" t="str">
+        <f>IF(ISBLANK(H56),"",VLOOKUP(H56,Class!$A:$C,3,FALSE))</f>
         <v>Field</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5" t="str">
-        <f>IF(ISBLANK(J55),"",VLOOKUP(J55,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5" t="str">
-        <f>IF(ISBLANK(L55),"",VLOOKUP(L55,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L55,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N55" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="8" t="s">
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="str">
+        <f>IF(ISBLANK(J56),"",VLOOKUP(J56,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="str">
+        <f>IF(ISBLANK(L56),"",VLOOKUP(L56,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L56,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N56" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23">
-      <c r="A56" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <f>Class!$A$7</f>
-        <v>6</v>
-      </c>
-      <c r="C56" s="6" t="str">
-        <f>VLOOKUP(B56,Class!$A:$C,3,FALSE)</f>
-        <v>FieldI18n</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="I56" s="3" t="str">
-        <f>IF(ISBLANK(H56),"",VLOOKUP(H56,Class!$A:$C,3,FALSE))</f>
-        <v>Locale</v>
-      </c>
-      <c r="K56" s="3" t="str">
-        <f>IF(ISBLANK(J56),"",VLOOKUP(J56,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M56" s="3" t="str">
-        <f>IF(ISBLANK(L56),"",VLOOKUP(L56,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L56,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U56" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8474,14 +8586,18 @@
         <v>FieldI18n</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>41</v>
+        <v>141</v>
+      </c>
+      <c r="H57" s="3">
+        <f>Class!$A$19</f>
+        <v>18</v>
       </c>
       <c r="I57" s="3" t="str">
         <f>IF(ISBLANK(H57),"",VLOOKUP(H57,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Locale</v>
       </c>
       <c r="K57" s="3" t="str">
         <f>IF(ISBLANK(J57),"",VLOOKUP(J57,Enum!$A:$C,3,FALSE))</f>
@@ -8491,14 +8607,14 @@
         <f>IF(ISBLANK(L57),"",VLOOKUP(L57,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L57,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U57" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="N57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8512,7 +8628,7 @@
         <v>FieldI18n</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>41</v>
@@ -8532,11 +8648,11 @@
       <c r="O58" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U58" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="V58" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8550,7 +8666,7 @@
         <v>FieldI18n</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>41</v>
@@ -8570,117 +8686,104 @@
       <c r="O59" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U59" s="7" t="s">
+      <c r="V59" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <f>Class!$A$7</f>
+        <v>6</v>
+      </c>
+      <c r="C60" s="6" t="str">
+        <f>VLOOKUP(B60,Class!$A:$C,3,FALSE)</f>
+        <v>FieldI18n</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="3" t="str">
+        <f>IF(ISBLANK(H60),"",VLOOKUP(H60,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f>IF(ISBLANK(J60),"",VLOOKUP(J60,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M60" s="3" t="str">
+        <f>IF(ISBLANK(L60),"",VLOOKUP(L60,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L60,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
-      <c r="A60" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
+    <row r="61" spans="1:24">
+      <c r="A61" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
         <f>Class!$A$8</f>
         <v>7</v>
       </c>
-      <c r="C60" s="5" t="str">
-        <f>VLOOKUP(B60,Class!$A:$C,3,FALSE)</f>
-        <v>Query</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="str">
-        <f>IF(ISBLANK(H60),"",VLOOKUP(H60,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8" t="str">
-        <f>IF(ISBLANK(J60),"",VLOOKUP(J60,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8" t="str">
-        <f>IF(ISBLANK(L60),"",VLOOKUP(L60,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L60,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N60" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="V60" s="8"/>
-      <c r="W60" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="6">
-        <f>Class!$A$8</f>
-        <v>7</v>
-      </c>
-      <c r="C61" s="6" t="str">
+      <c r="C61" s="5" t="str">
         <f>VLOOKUP(B61,Class!$A:$C,3,FALSE)</f>
         <v>Query</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6">
-        <f>Class!$A$4</f>
-        <v>3</v>
-      </c>
-      <c r="I61" s="6" t="str">
+      <c r="D61" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8" t="str">
         <f>IF(ISBLANK(H61),"",VLOOKUP(H61,Class!$A:$C,3,FALSE))</f>
-        <v>Class</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8" t="str">
         <f>IF(ISBLANK(J61),"",VLOOKUP(J61,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6" t="str">
+      <c r="L61" s="8"/>
+      <c r="M61" s="8" t="str">
         <f>IF(ISBLANK(L61),"",VLOOKUP(L61,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L61,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" s="3">
+      <c r="N61" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="W61" s="8"/>
+      <c r="X61" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -8692,29 +8795,47 @@
         <f>VLOOKUP(B62,Class!$A:$C,3,FALSE)</f>
         <v>Query</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="3" t="str">
+      <c r="D62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6">
+        <f>Class!$A$4</f>
+        <v>3</v>
+      </c>
+      <c r="I62" s="6" t="str">
         <f>IF(ISBLANK(H62),"",VLOOKUP(H62,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K62" s="3" t="str">
+        <v>Class</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6" t="str">
         <f>IF(ISBLANK(J62),"",VLOOKUP(J62,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M62" s="3" t="str">
+      <c r="L62" s="6"/>
+      <c r="M62" s="6" t="str">
         <f>IF(ISBLANK(L62),"",VLOOKUP(L62,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L62,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U62" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8728,10 +8849,10 @@
         <v>Query</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="I63" s="3" t="str">
         <f>IF(ISBLANK(H63),"",VLOOKUP(H63,Class!$A:$C,3,FALSE))</f>
@@ -8745,14 +8866,11 @@
         <f>IF(ISBLANK(L63),"",VLOOKUP(L63,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L63,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U63" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="V63" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8766,7 +8884,7 @@
         <v>Query</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>174</v>
@@ -8783,14 +8901,14 @@
         <f>IF(ISBLANK(L64),"",VLOOKUP(L64,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L64,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U64" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V64" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="V64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8803,11 +8921,11 @@
         <f>VLOOKUP(B65,Class!$A:$C,3,FALSE)</f>
         <v>Query</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>18</v>
+      <c r="D65" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="I65" s="3" t="str">
         <f>IF(ISBLANK(H65),"",VLOOKUP(H65,Class!$A:$C,3,FALSE))</f>
@@ -8821,11 +8939,14 @@
         <f>IF(ISBLANK(L65),"",VLOOKUP(L65,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L65,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U65" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="V65" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8839,7 +8960,7 @@
         <v>Query</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>41</v>
@@ -8856,14 +8977,11 @@
         <f>IF(ISBLANK(L66),"",VLOOKUP(L66,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L66,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U66" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="V66" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8877,7 +8995,7 @@
         <v>Query</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>41</v>
@@ -8897,151 +9015,156 @@
       <c r="O67" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U67" s="7" t="s">
+      <c r="V67" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="6">
+        <f>Class!$A$8</f>
+        <v>7</v>
+      </c>
+      <c r="C68" s="6" t="str">
+        <f>VLOOKUP(B68,Class!$A:$C,3,FALSE)</f>
+        <v>Query</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="3" t="str">
+        <f>IF(ISBLANK(H68),"",VLOOKUP(H68,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K68" s="3" t="str">
+        <f>IF(ISBLANK(J68),"",VLOOKUP(J68,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M68" s="3" t="str">
+        <f>IF(ISBLANK(L68),"",VLOOKUP(L68,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L68,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
-      <c r="A68" s="5">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
+    <row r="69" spans="1:24">
+      <c r="A69" s="5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
         <f>Class!$A$9</f>
         <v>8</v>
       </c>
-      <c r="C68" s="5" t="str">
-        <f>VLOOKUP(B68,Class!$A:$C,3,FALSE)</f>
+      <c r="C69" s="5" t="str">
+        <f>VLOOKUP(B69,Class!$A:$C,3,FALSE)</f>
         <v>Enum</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5" t="str">
-        <f>IF(ISBLANK(H68),"",VLOOKUP(H68,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5" t="str">
-        <f>IF(ISBLANK(J68),"",VLOOKUP(J68,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5" t="str">
-        <f>IF(ISBLANK(L68),"",VLOOKUP(L68,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L68,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N68" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5" t="str">
+        <f>IF(ISBLANK(H69),"",VLOOKUP(H69,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5" t="str">
+        <f>IF(ISBLANK(J69),"",VLOOKUP(J69,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5" t="str">
+        <f>IF(ISBLANK(L69),"",VLOOKUP(L69,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L69,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N69" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5" t="s">
+      <c r="W69" s="5"/>
+      <c r="X69" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
-      <c r="A69" s="6">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="6">
+    <row r="70" spans="1:24">
+      <c r="A70" s="6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
         <f>Class!$A$9</f>
         <v>8</v>
       </c>
-      <c r="C69" s="6" t="str">
-        <f>VLOOKUP(B69,Class!$A:$C,3,FALSE)</f>
-        <v>Enum</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6">
-        <f>Class!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="I69" s="6" t="str">
-        <f>IF(ISBLANK(H69),"",VLOOKUP(H69,Class!$A:$C,3,FALSE))</f>
-        <v>Project</v>
-      </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6" t="str">
-        <f>IF(ISBLANK(J69),"",VLOOKUP(J69,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6" t="str">
-        <f>IF(ISBLANK(L69),"",VLOOKUP(L69,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L69,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="3">
-        <f>Class!$A$9</f>
-        <v>8</v>
-      </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="6" t="str">
         <f>VLOOKUP(B70,Class!$A:$C,3,FALSE)</f>
         <v>Enum</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="3" t="str">
+      <c r="D70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6">
+        <f>Class!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="str">
         <f>IF(ISBLANK(H70),"",VLOOKUP(H70,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K70" s="3" t="str">
+        <v>Project</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6" t="str">
         <f>IF(ISBLANK(J70),"",VLOOKUP(J70,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M70" s="3" t="str">
+      <c r="L70" s="6"/>
+      <c r="M70" s="6" t="str">
         <f>IF(ISBLANK(L70),"",VLOOKUP(L70,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L70,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U70" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -9055,10 +9178,10 @@
         <v>Enum</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="I71" s="3" t="str">
         <f>IF(ISBLANK(H71),"",VLOOKUP(H71,Class!$A:$C,3,FALSE))</f>
@@ -9072,14 +9195,11 @@
         <f>IF(ISBLANK(L71),"",VLOOKUP(L71,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L71,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U71" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V71" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="V71" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -9093,10 +9213,10 @@
         <v>Enum</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I72" s="3" t="str">
         <f>IF(ISBLANK(H72),"",VLOOKUP(H72,Class!$A:$C,3,FALSE))</f>
@@ -9110,11 +9230,14 @@
         <f>IF(ISBLANK(L72),"",VLOOKUP(L72,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L72,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U72" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="V72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -9128,7 +9251,7 @@
         <v>Enum</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>50</v>
@@ -9145,14 +9268,11 @@
         <f>IF(ISBLANK(L73),"",VLOOKUP(L73,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L73,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O73" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U73" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="V73" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -9166,7 +9286,7 @@
         <v>Enum</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>50</v>
@@ -9186,12 +9306,12 @@
       <c r="O74" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U74" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
-      <c r="A75" s="6">
+      <c r="V74" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -9203,46 +9323,32 @@
         <f>VLOOKUP(B75,Class!$A:$C,3,FALSE)</f>
         <v>Enum</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6" t="str">
+      <c r="D75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" s="3" t="str">
         <f>IF(ISBLANK(H75),"",VLOOKUP(H75,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="str">
+      <c r="K75" s="3" t="str">
         <f>IF(ISBLANK(J75),"",VLOOKUP(J75,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L75" s="6">
-        <f>$A$81</f>
-        <v>80</v>
-      </c>
-      <c r="M75" s="6" t="str">
+      <c r="M75" s="3" t="str">
         <f>IF(ISBLANK(L75),"",VLOOKUP(L75,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L75,Field!$A:$D,4,FALSE))</f>
-        <v>EnumValue.owner</v>
-      </c>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-    </row>
-    <row r="76" spans="1:23">
+        <v/>
+      </c>
+      <c r="O75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -9255,129 +9361,146 @@
         <f>VLOOKUP(B76,Class!$A:$C,3,FALSE)</f>
         <v>Enum</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6" t="str">
+        <f>IF(ISBLANK(H76),"",VLOOKUP(H76,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6" t="str">
+        <f>IF(ISBLANK(J76),"",VLOOKUP(J76,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L76" s="6">
+        <f>$A$82</f>
+        <v>81</v>
+      </c>
+      <c r="M76" s="6" t="str">
+        <f>IF(ISBLANK(L76),"",VLOOKUP(L76,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L76,Field!$A:$D,4,FALSE))</f>
+        <v>EnumValue.owner</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U76" s="6"/>
+      <c r="V76" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" s="6">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <f>Class!$A$9</f>
+        <v>8</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f>VLOOKUP(B77,Class!$A:$C,3,FALSE)</f>
+        <v>Enum</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I76" s="3" t="str">
-        <f>IF(ISBLANK(H76),"",VLOOKUP(H76,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K76" s="3" t="str">
-        <f>IF(ISBLANK(J76),"",VLOOKUP(J76,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L76" s="3">
-        <f>$A$77</f>
-        <v>76</v>
-      </c>
-      <c r="M76" s="3" t="str">
-        <f>IF(ISBLANK(L76),"",VLOOKUP(L76,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L76,Field!$A:$D,4,FALSE))</f>
+      <c r="I77" s="3" t="str">
+        <f>IF(ISBLANK(H77),"",VLOOKUP(H77,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K77" s="3" t="str">
+        <f>IF(ISBLANK(J77),"",VLOOKUP(J77,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L77" s="3">
+        <f>$A$78</f>
+        <v>77</v>
+      </c>
+      <c r="M77" s="3" t="str">
+        <f>IF(ISBLANK(L77),"",VLOOKUP(L77,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L77,Field!$A:$D,4,FALSE))</f>
         <v>EnumI18n.owner</v>
       </c>
-      <c r="U76" s="7" t="s">
+      <c r="T77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
-      <c r="A77" s="5">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
+    <row r="78" spans="1:24">
+      <c r="A78" s="5">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
         <f>Class!$A$10</f>
         <v>9</v>
       </c>
-      <c r="C77" s="5" t="str">
-        <f>VLOOKUP(B77,Class!$A:$C,3,FALSE)</f>
+      <c r="C78" s="5" t="str">
+        <f>VLOOKUP(B78,Class!$A:$C,3,FALSE)</f>
         <v>EnumI18n</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5">
         <f>Class!$A$9</f>
         <v>8</v>
       </c>
-      <c r="I77" s="5" t="str">
-        <f>IF(ISBLANK(H77),"",VLOOKUP(H77,Class!$A:$C,3,FALSE))</f>
+      <c r="I78" s="5" t="str">
+        <f>IF(ISBLANK(H78),"",VLOOKUP(H78,Class!$A:$C,3,FALSE))</f>
         <v>Enum</v>
       </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5" t="str">
-        <f>IF(ISBLANK(J77),"",VLOOKUP(J77,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5" t="str">
-        <f>IF(ISBLANK(L77),"",VLOOKUP(L77,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L77,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N77" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="8" t="s">
+      <c r="J78" s="5"/>
+      <c r="K78" s="5" t="str">
+        <f>IF(ISBLANK(J78),"",VLOOKUP(J78,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5" t="str">
+        <f>IF(ISBLANK(L78),"",VLOOKUP(L78,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L78,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="A78" s="6">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="6">
-        <f>Class!$A$10</f>
-        <v>9</v>
-      </c>
-      <c r="C78" s="6" t="str">
-        <f>VLOOKUP(B78,Class!$A:$C,3,FALSE)</f>
-        <v>EnumI18n</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H78" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="I78" s="3" t="str">
-        <f>IF(ISBLANK(H78),"",VLOOKUP(H78,Class!$A:$C,3,FALSE))</f>
-        <v>Locale</v>
-      </c>
-      <c r="K78" s="3" t="str">
-        <f>IF(ISBLANK(J78),"",VLOOKUP(J78,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M78" s="3" t="str">
-        <f>IF(ISBLANK(L78),"",VLOOKUP(L78,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L78,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N78" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U78" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="6">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -9391,14 +9514,18 @@
         <v>EnumI18n</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="3">
+        <f>Class!$A$19</f>
         <v>18</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="I79" s="3" t="str">
         <f>IF(ISBLANK(H79),"",VLOOKUP(H79,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Locale</v>
       </c>
       <c r="K79" s="3" t="str">
         <f>IF(ISBLANK(J79),"",VLOOKUP(J79,Enum!$A:$C,3,FALSE))</f>
@@ -9408,19 +9535,19 @@
         <f>IF(ISBLANK(L79),"",VLOOKUP(L79,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L79,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O79" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U79" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="N79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="6">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="6">
         <f>Class!$A$10</f>
         <v>9</v>
       </c>
@@ -9429,7 +9556,7 @@
         <v>EnumI18n</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>41</v>
@@ -9449,154 +9576,156 @@
       <c r="O80" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U80" s="7" t="s">
+      <c r="V80" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="10">
+        <f>Class!$A$10</f>
+        <v>9</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <f>VLOOKUP(B81,Class!$A:$C,3,FALSE)</f>
+        <v>EnumI18n</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="3" t="str">
+        <f>IF(ISBLANK(H81),"",VLOOKUP(H81,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K81" s="3" t="str">
+        <f>IF(ISBLANK(J81),"",VLOOKUP(J81,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M81" s="3" t="str">
+        <f>IF(ISBLANK(L81),"",VLOOKUP(L81,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L81,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O81" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
-      <c r="A81" s="5">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
+    <row r="82" spans="1:24">
+      <c r="A82" s="5">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
         <f>Class!$A$11</f>
         <v>10</v>
       </c>
-      <c r="C81" s="5" t="str">
-        <f>VLOOKUP(B81,Class!$A:$C,3,FALSE)</f>
+      <c r="C82" s="5" t="str">
+        <f>VLOOKUP(B82,Class!$A:$C,3,FALSE)</f>
         <v>EnumValue</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5">
         <f>Class!$A$9</f>
         <v>8</v>
       </c>
-      <c r="I81" s="5" t="str">
-        <f>IF(ISBLANK(H81),"",VLOOKUP(H81,Class!$A:$C,3,FALSE))</f>
+      <c r="I82" s="5" t="str">
+        <f>IF(ISBLANK(H82),"",VLOOKUP(H82,Class!$A:$C,3,FALSE))</f>
         <v>Enum</v>
       </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5" t="str">
-        <f>IF(ISBLANK(J81),"",VLOOKUP(J81,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5" t="str">
-        <f>IF(ISBLANK(L81),"",VLOOKUP(L81,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L81,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="8" t="s">
+      <c r="J82" s="5"/>
+      <c r="K82" s="5" t="str">
+        <f>IF(ISBLANK(J82),"",VLOOKUP(J82,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5" t="str">
+        <f>IF(ISBLANK(L82),"",VLOOKUP(L82,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L82,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N82" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="A82" s="6">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="6">
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" s="6">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
         <f>Class!$A$11</f>
         <v>10</v>
       </c>
-      <c r="C82" s="6" t="str">
-        <f>VLOOKUP(B82,Class!$A:$C,3,FALSE)</f>
-        <v>EnumValue</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6" t="str">
-        <f>IF(ISBLANK(H82),"",VLOOKUP(H82,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6" t="str">
-        <f>IF(ISBLANK(J82),"",VLOOKUP(J82,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6" t="str">
-        <f>IF(ISBLANK(L82),"",VLOOKUP(L82,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L82,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N82" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-    </row>
-    <row r="83" spans="1:23">
-      <c r="A83" s="3">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="3">
-        <f>Class!$A$11</f>
-        <v>10</v>
-      </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="6" t="str">
         <f>VLOOKUP(B83,Class!$A:$C,3,FALSE)</f>
         <v>EnumValue</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="3">
-        <v>32</v>
-      </c>
-      <c r="I83" s="3" t="str">
+      <c r="D83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6" t="str">
         <f>IF(ISBLANK(H83),"",VLOOKUP(H83,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K83" s="3" t="str">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6" t="str">
         <f>IF(ISBLANK(J83),"",VLOOKUP(J83,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M83" s="3" t="str">
+      <c r="L83" s="6"/>
+      <c r="M83" s="6" t="str">
         <f>IF(ISBLANK(L83),"",VLOOKUP(L83,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L83,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U83" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="N83" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="3">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -9610,10 +9739,13 @@
         <v>EnumValue</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="F84" s="3">
+        <v>32</v>
       </c>
       <c r="I84" s="3" t="str">
         <f>IF(ISBLANK(H84),"",VLOOKUP(H84,Class!$A:$C,3,FALSE))</f>
@@ -9627,11 +9759,11 @@
         <f>IF(ISBLANK(L84),"",VLOOKUP(L84,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L84,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U84" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="V84" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="3">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -9645,7 +9777,7 @@
         <v>EnumValue</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>50</v>
@@ -9662,14 +9794,11 @@
         <f>IF(ISBLANK(L85),"",VLOOKUP(L85,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L85,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O85" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U85" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="V85" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -9683,7 +9812,7 @@
         <v>EnumValue</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>50</v>
@@ -9703,12 +9832,12 @@
       <c r="O86" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U86" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
-      <c r="A87" s="6">
+      <c r="V86" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" s="3">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -9721,10 +9850,10 @@
         <v>EnumValue</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="I87" s="3" t="str">
         <f>IF(ISBLANK(H87),"",VLOOKUP(H87,Class!$A:$C,3,FALSE))</f>
@@ -9734,115 +9863,115 @@
         <f>IF(ISBLANK(J87),"",VLOOKUP(J87,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L87" s="3">
-        <f>$A$88</f>
-        <v>87</v>
-      </c>
       <c r="M87" s="3" t="str">
         <f>IF(ISBLANK(L87),"",VLOOKUP(L87,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L87,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V87" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" s="6">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <f>Class!$A$11</f>
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f>VLOOKUP(B88,Class!$A:$C,3,FALSE)</f>
+        <v>EnumValue</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I88" s="3" t="str">
+        <f>IF(ISBLANK(H88),"",VLOOKUP(H88,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K88" s="3" t="str">
+        <f>IF(ISBLANK(J88),"",VLOOKUP(J88,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L88" s="3">
+        <f>$A$89</f>
+        <v>88</v>
+      </c>
+      <c r="M88" s="3" t="str">
+        <f>IF(ISBLANK(L88),"",VLOOKUP(L88,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L88,Field!$A:$D,4,FALSE))</f>
         <v>EnumValueI18n.owner</v>
       </c>
-      <c r="U87" s="7" t="s">
+      <c r="T88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
-      <c r="A88" s="5">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
+    <row r="89" spans="1:24">
+      <c r="A89" s="5">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
         <f>Class!$A$12</f>
         <v>11</v>
       </c>
-      <c r="C88" s="5" t="str">
-        <f>VLOOKUP(B88,Class!$A:$C,3,FALSE)</f>
+      <c r="C89" s="5" t="str">
+        <f>VLOOKUP(B89,Class!$A:$C,3,FALSE)</f>
         <v>EnumValueI18n</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5">
         <f>Class!$A$11</f>
         <v>10</v>
       </c>
-      <c r="I88" s="5" t="str">
-        <f>IF(ISBLANK(H88),"",VLOOKUP(H88,Class!$A:$C,3,FALSE))</f>
+      <c r="I89" s="5" t="str">
+        <f>IF(ISBLANK(H89),"",VLOOKUP(H89,Class!$A:$C,3,FALSE))</f>
         <v>EnumValue</v>
       </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5" t="str">
-        <f>IF(ISBLANK(J88),"",VLOOKUP(J88,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5" t="str">
-        <f>IF(ISBLANK(L88),"",VLOOKUP(L88,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L88,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N88" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="8" t="s">
+      <c r="J89" s="5"/>
+      <c r="K89" s="5" t="str">
+        <f>IF(ISBLANK(J89),"",VLOOKUP(J89,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5" t="str">
+        <f>IF(ISBLANK(L89),"",VLOOKUP(L89,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L89,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-    </row>
-    <row r="89" spans="1:23">
-      <c r="A89" s="6">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="B89" s="6">
-        <f>Class!$A$12</f>
-        <v>11</v>
-      </c>
-      <c r="C89" s="6" t="str">
-        <f>VLOOKUP(B89,Class!$A:$C,3,FALSE)</f>
-        <v>EnumValueI18n</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H89" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="I89" s="3" t="str">
-        <f>IF(ISBLANK(H89),"",VLOOKUP(H89,Class!$A:$C,3,FALSE))</f>
-        <v>Locale</v>
-      </c>
-      <c r="K89" s="3" t="str">
-        <f>IF(ISBLANK(J89),"",VLOOKUP(J89,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M89" s="3" t="str">
-        <f>IF(ISBLANK(L89),"",VLOOKUP(L89,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L89,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N89" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U89" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="6">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -9856,14 +9985,18 @@
         <v>EnumValueI18n</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H90" s="3">
+        <f>Class!$A$19</f>
         <v>18</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="I90" s="3" t="str">
         <f>IF(ISBLANK(H90),"",VLOOKUP(H90,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Locale</v>
       </c>
       <c r="K90" s="3" t="str">
         <f>IF(ISBLANK(J90),"",VLOOKUP(J90,Enum!$A:$C,3,FALSE))</f>
@@ -9873,19 +10006,19 @@
         <f>IF(ISBLANK(L90),"",VLOOKUP(L90,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L90,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O90" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U90" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="N90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V90" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="6">
         <f>Class!$A$12</f>
         <v>11</v>
       </c>
@@ -9894,7 +10027,7 @@
         <v>EnumValueI18n</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>41</v>
@@ -9914,114 +10047,101 @@
       <c r="O91" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U91" s="7" t="s">
+      <c r="V91" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" s="6">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="10">
+        <f>Class!$A$12</f>
+        <v>11</v>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f>VLOOKUP(B92,Class!$A:$C,3,FALSE)</f>
+        <v>EnumValueI18n</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" s="3" t="str">
+        <f>IF(ISBLANK(H92),"",VLOOKUP(H92,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K92" s="3" t="str">
+        <f>IF(ISBLANK(J92),"",VLOOKUP(J92,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M92" s="3" t="str">
+        <f>IF(ISBLANK(L92),"",VLOOKUP(L92,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L92,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
-      <c r="A92" s="5">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="B92" s="5">
+    <row r="93" spans="1:24">
+      <c r="A93" s="5">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
         <f>Class!$A$13</f>
         <v>12</v>
       </c>
-      <c r="C92" s="5" t="str">
-        <f>VLOOKUP(B92,Class!$A:$C,3,FALSE)</f>
-        <v>Message</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5" t="str">
-        <f>IF(ISBLANK(H92),"",VLOOKUP(H92,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5" t="str">
-        <f>IF(ISBLANK(J92),"",VLOOKUP(J92,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5" t="str">
-        <f>IF(ISBLANK(L92),"",VLOOKUP(L92,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L92,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-    </row>
-    <row r="93" spans="1:23">
-      <c r="A93" s="6">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="B93" s="6">
-        <f>Class!$A$13</f>
-        <v>12</v>
-      </c>
-      <c r="C93" s="6" t="str">
+      <c r="C93" s="5" t="str">
         <f>VLOOKUP(B93,Class!$A:$C,3,FALSE)</f>
         <v>Message</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6">
-        <f>Class!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="I93" s="6" t="str">
+      <c r="D93" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5" t="str">
         <f>IF(ISBLANK(H93),"",VLOOKUP(H93,Class!$A:$C,3,FALSE))</f>
-        <v>Project</v>
-      </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5" t="str">
         <f>IF(ISBLANK(J93),"",VLOOKUP(J93,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6" t="str">
+      <c r="L93" s="5"/>
+      <c r="M93" s="5" t="str">
         <f>IF(ISBLANK(L93),"",VLOOKUP(L93,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L93,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="N93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="6">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -10035,17 +10155,20 @@
         <v>Message</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="6">
+        <f>Class!$A$2</f>
+        <v>1</v>
+      </c>
       <c r="I94" s="6" t="str">
         <f>IF(ISBLANK(H94),"",VLOOKUP(H94,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Project</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6" t="str">
@@ -10064,49 +10187,65 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
-      <c r="U94" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="V94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W94" s="6"/>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="A95" s="3">
+      <c r="X94" s="6"/>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" s="6">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="6">
         <f>Class!$A$13</f>
         <v>12</v>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" s="6" t="str">
         <f>VLOOKUP(B95,Class!$A:$C,3,FALSE)</f>
         <v>Message</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>257</v>
+      <c r="D95" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I95" s="3" t="str">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6" t="str">
         <f>IF(ISBLANK(H95),"",VLOOKUP(H95,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K95" s="3" t="str">
+      <c r="J95" s="6"/>
+      <c r="K95" s="6" t="str">
         <f>IF(ISBLANK(J95),"",VLOOKUP(J95,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M95" s="3" t="str">
+      <c r="L95" s="6"/>
+      <c r="M95" s="6" t="str">
         <f>IF(ISBLANK(L95),"",VLOOKUP(L95,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L95,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U95" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="A96" s="6">
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" s="3">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -10118,11 +10257,11 @@
         <f>VLOOKUP(B96,Class!$A:$C,3,FALSE)</f>
         <v>Message</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>143</v>
+      <c r="D96" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I96" s="3" t="str">
         <f>IF(ISBLANK(H96),"",VLOOKUP(H96,Class!$A:$C,3,FALSE))</f>
@@ -10132,115 +10271,112 @@
         <f>IF(ISBLANK(J96),"",VLOOKUP(J96,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L96" s="3">
-        <f>$A$97</f>
-        <v>96</v>
-      </c>
       <c r="M96" s="3" t="str">
         <f>IF(ISBLANK(L96),"",VLOOKUP(L96,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L96,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V96" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" s="6">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <f>Class!$A$13</f>
+        <v>12</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f>VLOOKUP(B97,Class!$A:$C,3,FALSE)</f>
+        <v>Message</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I97" s="3" t="str">
+        <f>IF(ISBLANK(H97),"",VLOOKUP(H97,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K97" s="3" t="str">
+        <f>IF(ISBLANK(J97),"",VLOOKUP(J97,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L97" s="3">
+        <f>$A$98</f>
+        <v>97</v>
+      </c>
+      <c r="M97" s="3" t="str">
+        <f>IF(ISBLANK(L97),"",VLOOKUP(L97,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L97,Field!$A:$D,4,FALSE))</f>
         <v>MessageI18n.owner</v>
       </c>
-      <c r="U96" s="7" t="s">
+      <c r="T97" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V97" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
-      <c r="A97" s="5">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="B97" s="5">
+    <row r="98" spans="1:24">
+      <c r="A98" s="5">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
         <f>Class!$A$14</f>
         <v>13</v>
       </c>
-      <c r="C97" s="5" t="str">
-        <f>VLOOKUP(B97,Class!$A:$C,3,FALSE)</f>
+      <c r="C98" s="5" t="str">
+        <f>VLOOKUP(B98,Class!$A:$C,3,FALSE)</f>
         <v>MessageI18n</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5">
         <f>Class!$A$13</f>
         <v>12</v>
       </c>
-      <c r="I97" s="5" t="str">
-        <f>IF(ISBLANK(H97),"",VLOOKUP(H97,Class!$A:$C,3,FALSE))</f>
+      <c r="I98" s="5" t="str">
+        <f>IF(ISBLANK(H98),"",VLOOKUP(H98,Class!$A:$C,3,FALSE))</f>
         <v>Message</v>
       </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5" t="str">
-        <f>IF(ISBLANK(J97),"",VLOOKUP(J97,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5" t="str">
-        <f>IF(ISBLANK(L97),"",VLOOKUP(L97,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L97,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="8" t="s">
+      <c r="J98" s="5"/>
+      <c r="K98" s="5" t="str">
+        <f>IF(ISBLANK(J98),"",VLOOKUP(J98,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5" t="str">
+        <f>IF(ISBLANK(L98),"",VLOOKUP(L98,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L98,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-    </row>
-    <row r="98" spans="1:23">
-      <c r="A98" s="6">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="B98" s="6">
-        <f>Class!$A$14</f>
-        <v>13</v>
-      </c>
-      <c r="C98" s="6" t="str">
-        <f>VLOOKUP(B98,Class!$A:$C,3,FALSE)</f>
-        <v>MessageI18n</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H98" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="I98" s="3" t="str">
-        <f>IF(ISBLANK(H98),"",VLOOKUP(H98,Class!$A:$C,3,FALSE))</f>
-        <v>Locale</v>
-      </c>
-      <c r="K98" s="3" t="str">
-        <f>IF(ISBLANK(J98),"",VLOOKUP(J98,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M98" s="3" t="str">
-        <f>IF(ISBLANK(L98),"",VLOOKUP(L98,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L98,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N98" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U98" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="6">
         <f t="shared" si="0"/>
         <v>98</v>
@@ -10254,20 +10390,20 @@
         <v>MessageI18n</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6" t="str">
+        <v>294</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="3">
+        <f>Class!$A$19</f>
+        <v>18</v>
+      </c>
+      <c r="I99" s="3" t="str">
         <f>IF(ISBLANK(H99),"",VLOOKUP(H99,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6" t="str">
+        <v>Locale</v>
+      </c>
+      <c r="K99" s="3" t="str">
         <f>IF(ISBLANK(J99),"",VLOOKUP(J99,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
@@ -10275,107 +10411,108 @@
         <f>IF(ISBLANK(L99),"",VLOOKUP(L99,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L99,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U99" s="7" t="s">
+      <c r="N99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V99" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
+      <c r="A100" s="6">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="6">
+        <f>Class!$A$14</f>
+        <v>13</v>
+      </c>
+      <c r="C100" s="6" t="str">
+        <f>VLOOKUP(B100,Class!$A:$C,3,FALSE)</f>
+        <v>MessageI18n</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6" t="str">
+        <f>IF(ISBLANK(H100),"",VLOOKUP(H100,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6" t="str">
+        <f>IF(ISBLANK(J100),"",VLOOKUP(J100,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M100" s="3" t="str">
+        <f>IF(ISBLANK(L100),"",VLOOKUP(L100,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L100,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V100" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
-      <c r="A100" s="5">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="B100" s="5">
+    <row r="101" spans="1:24">
+      <c r="A101" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="5">
         <f>Class!$A$15</f>
         <v>14</v>
       </c>
-      <c r="C100" s="5" t="str">
-        <f>VLOOKUP(B100,Class!$A:$C,3,FALSE)</f>
-        <v>Style</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5" t="str">
-        <f>IF(ISBLANK(H100),"",VLOOKUP(H100,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5" t="str">
-        <f>IF(ISBLANK(J100),"",VLOOKUP(J100,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5" t="str">
-        <f>IF(ISBLANK(L100),"",VLOOKUP(L100,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L100,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-    </row>
-    <row r="101" spans="1:23">
-      <c r="A101" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="B101" s="6">
-        <f>Class!$A$15</f>
-        <v>14</v>
-      </c>
-      <c r="C101" s="6" t="str">
+      <c r="C101" s="5" t="str">
         <f>VLOOKUP(B101,Class!$A:$C,3,FALSE)</f>
         <v>Style</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6">
-        <f>Class!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="I101" s="6" t="str">
+      <c r="D101" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5" t="str">
         <f>IF(ISBLANK(H101),"",VLOOKUP(H101,Class!$A:$C,3,FALSE))</f>
-        <v>Project</v>
-      </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5" t="str">
         <f>IF(ISBLANK(J101),"",VLOOKUP(J101,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M101" s="3" t="str">
+      <c r="L101" s="5"/>
+      <c r="M101" s="5" t="str">
         <f>IF(ISBLANK(L101),"",VLOOKUP(L101,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L101,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U101" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="N101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="6">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -10389,17 +10526,20 @@
         <v>Style</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="H102" s="6">
+        <f>Class!$A$2</f>
+        <v>1</v>
+      </c>
       <c r="I102" s="6" t="str">
         <f>IF(ISBLANK(H102),"",VLOOKUP(H102,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Project</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6" t="str">
@@ -10410,11 +10550,11 @@
         <f>IF(ISBLANK(L102),"",VLOOKUP(L102,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L102,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U102" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="V102" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="6">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -10428,10 +10568,10 @@
         <v>Style</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -10445,19 +10585,15 @@
         <f>IF(ISBLANK(J103),"",VLOOKUP(J103,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L103" s="3">
-        <f>$A$104</f>
-        <v>103</v>
-      </c>
       <c r="M103" s="3" t="str">
         <f>IF(ISBLANK(L103),"",VLOOKUP(L103,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L103,Field!$A:$D,4,FALSE))</f>
-        <v>Style.parent</v>
-      </c>
-      <c r="U103" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23">
+        <v/>
+      </c>
+      <c r="V103" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="6">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -10471,38 +10607,36 @@
         <v>Style</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="6">
-        <f>Class!$A$15</f>
-        <v>14</v>
-      </c>
+      <c r="H104" s="6"/>
       <c r="I104" s="6" t="str">
         <f>IF(ISBLANK(H104),"",VLOOKUP(H104,Class!$A:$C,3,FALSE))</f>
-        <v>Style</v>
+        <v/>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6" t="str">
         <f>IF(ISBLANK(J104),"",VLOOKUP(J104,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
+      <c r="L104" s="3">
+        <f>$A$105</f>
+        <v>104</v>
+      </c>
       <c r="M104" s="3" t="str">
         <f>IF(ISBLANK(L104),"",VLOOKUP(L104,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L104,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O104" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U104" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+        <v>Style.parent</v>
+      </c>
+      <c r="V104" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="6">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -10516,35 +10650,38 @@
         <v>Style</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="H105" s="6">
+        <f>Class!$A$15</f>
+        <v>14</v>
+      </c>
       <c r="I105" s="6" t="str">
         <f>IF(ISBLANK(H105),"",VLOOKUP(H105,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J105" s="6">
-        <f>Enum!$A$3</f>
-        <v>2</v>
-      </c>
+        <v>Style</v>
+      </c>
+      <c r="J105" s="6"/>
       <c r="K105" s="6" t="str">
         <f>IF(ISBLANK(J105),"",VLOOKUP(J105,Enum!$A:$C,3,FALSE))</f>
-        <v>StyleCondition</v>
+        <v/>
       </c>
       <c r="M105" s="3" t="str">
         <f>IF(ISBLANK(L105),"",VLOOKUP(L105,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L105,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U105" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="O105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V105" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="6">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -10558,10 +10695,10 @@
         <v>Style</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -10570,23 +10707,23 @@
         <f>IF(ISBLANK(H106),"",VLOOKUP(H106,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="J106" s="6"/>
+      <c r="J106" s="6">
+        <f>Enum!$A$3</f>
+        <v>2</v>
+      </c>
       <c r="K106" s="6" t="str">
         <f>IF(ISBLANK(J106),"",VLOOKUP(J106,Enum!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>StyleCondition</v>
       </c>
       <c r="M106" s="3" t="str">
         <f>IF(ISBLANK(L106),"",VLOOKUP(L106,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L106,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O106" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U106" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="V106" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="6">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -10600,10 +10737,10 @@
         <v>Style</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -10624,11 +10761,11 @@
       <c r="O107" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U107" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="V107" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="6">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -10642,7 +10779,7 @@
         <v>Style</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>354</v>
@@ -10666,11 +10803,11 @@
       <c r="O108" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U108" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="V108" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="6">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -10684,7 +10821,7 @@
         <v>Style</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>354</v>
@@ -10708,11 +10845,11 @@
       <c r="O109" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U109" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="V109" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="6">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -10726,11 +10863,12 @@
         <v>Style</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>354</v>
       </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6" t="str">
@@ -10749,11 +10887,11 @@
       <c r="O110" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U110" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="V110" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="6">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -10767,7 +10905,7 @@
         <v>Style</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>354</v>
@@ -10790,11 +10928,11 @@
       <c r="O111" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U111" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="V111" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="6">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -10808,7 +10946,7 @@
         <v>Style</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>354</v>
@@ -10831,11 +10969,11 @@
       <c r="O112" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U112" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="V112" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="6">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -10849,12 +10987,11 @@
         <v>Style</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6" t="str">
@@ -10873,11 +11010,11 @@
       <c r="O113" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U113" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="V113" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="6">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -10891,11 +11028,12 @@
         <v>Style</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>354</v>
       </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6" t="str">
@@ -10914,11 +11052,11 @@
       <c r="O114" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U114" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="V114" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="6">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -10932,7 +11070,7 @@
         <v>Style</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>354</v>
@@ -10955,11 +11093,11 @@
       <c r="O115" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U115" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="V115" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="6">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -10973,7 +11111,7 @@
         <v>Style</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>354</v>
@@ -10996,11 +11134,11 @@
       <c r="O116" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U116" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="V116" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="6">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -11014,7 +11152,7 @@
         <v>Style</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>354</v>
@@ -11037,11 +11175,11 @@
       <c r="O117" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U117" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="V117" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="6">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -11055,7 +11193,7 @@
         <v>Style</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>354</v>
@@ -11078,11 +11216,11 @@
       <c r="O118" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U118" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="V118" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="6">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -11096,7 +11234,7 @@
         <v>Style</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>354</v>
@@ -11119,11 +11257,11 @@
       <c r="O119" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U119" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="V119" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="6">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -11137,12 +11275,11 @@
         <v>Style</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6" t="str">
@@ -11161,100 +11298,103 @@
       <c r="O120" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U120" s="6" t="s">
+      <c r="V120" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="A121" s="6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="6">
+        <f>Class!$A$15</f>
+        <v>14</v>
+      </c>
+      <c r="C121" s="6" t="str">
+        <f>VLOOKUP(B121,Class!$A:$C,3,FALSE)</f>
+        <v>Style</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6" t="str">
+        <f>IF(ISBLANK(H121),"",VLOOKUP(H121,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6" t="str">
+        <f>IF(ISBLANK(J121),"",VLOOKUP(J121,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M121" s="3" t="str">
+        <f>IF(ISBLANK(L121),"",VLOOKUP(L121,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L121,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V121" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
-      <c r="A121" s="5">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="5">
+    <row r="122" spans="1:24">
+      <c r="A122" s="5">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="5">
         <f>Class!$A$16</f>
         <v>15</v>
       </c>
-      <c r="C121" s="5" t="str">
-        <f>VLOOKUP(B121,Class!$A:$C,3,FALSE)</f>
-        <v>Form</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5" t="str">
-        <f>IF(ISBLANK(H121),"",VLOOKUP(H121,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5" t="str">
-        <f>IF(ISBLANK(J121),"",VLOOKUP(J121,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5" t="str">
-        <f>IF(ISBLANK(L121),"",VLOOKUP(L121,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L121,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
-    </row>
-    <row r="122" spans="1:23">
-      <c r="A122" s="6">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="6">
-        <f>Class!$A$16</f>
-        <v>15</v>
-      </c>
-      <c r="C122" s="6" t="str">
+      <c r="C122" s="5" t="str">
         <f>VLOOKUP(B122,Class!$A:$C,3,FALSE)</f>
         <v>Form</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6">
-        <f>Class!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="I122" s="6" t="str">
+      <c r="D122" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5" t="str">
         <f>IF(ISBLANK(H122),"",VLOOKUP(H122,Class!$A:$C,3,FALSE))</f>
-        <v>Project</v>
-      </c>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5" t="str">
         <f>IF(ISBLANK(J122),"",VLOOKUP(J122,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M122" s="3" t="str">
+      <c r="L122" s="5"/>
+      <c r="M122" s="5" t="str">
         <f>IF(ISBLANK(L122),"",VLOOKUP(L122,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L122,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U122" s="6"/>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="N122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="6">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -11268,17 +11408,20 @@
         <v>Form</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="H123" s="6">
+        <f>Class!$A$2</f>
+        <v>1</v>
+      </c>
       <c r="I123" s="6" t="str">
         <f>IF(ISBLANK(H123),"",VLOOKUP(H123,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Project</v>
       </c>
       <c r="J123" s="6"/>
       <c r="K123" s="6" t="str">
@@ -11289,9 +11432,9 @@
         <f>IF(ISBLANK(L123),"",VLOOKUP(L123,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L123,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U123" s="6"/>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="V123" s="6"/>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="6">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -11304,17 +11447,21 @@
         <f>VLOOKUP(B124,Class!$A:$C,3,FALSE)</f>
         <v>Form</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I124" s="3" t="str">
+      <c r="D124" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6" t="str">
         <f>IF(ISBLANK(H124),"",VLOOKUP(H124,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K124" s="3" t="str">
+      <c r="J124" s="6"/>
+      <c r="K124" s="6" t="str">
         <f>IF(ISBLANK(J124),"",VLOOKUP(J124,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
@@ -11322,11 +11469,9 @@
         <f>IF(ISBLANK(L124),"",VLOOKUP(L124,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L124,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U124" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="V124" s="6"/>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="6">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -11340,7 +11485,7 @@
         <v>Form</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>41</v>
@@ -11357,11 +11502,11 @@
         <f>IF(ISBLANK(L125),"",VLOOKUP(L125,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L125,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U125" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="V125" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="6">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -11374,134 +11519,123 @@
         <f>VLOOKUP(B126,Class!$A:$C,3,FALSE)</f>
         <v>Form</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6" t="str">
+      <c r="D126" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I126" s="3" t="str">
         <f>IF(ISBLANK(H126),"",VLOOKUP(H126,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6" t="str">
+      <c r="K126" s="3" t="str">
         <f>IF(ISBLANK(J126),"",VLOOKUP(J126,Enum!$A:$C,3,FALSE))</f>
         <v/>
-      </c>
-      <c r="L126" s="3">
-        <f>$A$128</f>
-        <v>127</v>
       </c>
       <c r="M126" s="3" t="str">
         <f>IF(ISBLANK(L126),"",VLOOKUP(L126,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L126,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V126" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
+      <c r="A127" s="6">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="6">
+        <f>Class!$A$16</f>
+        <v>15</v>
+      </c>
+      <c r="C127" s="6" t="str">
+        <f>VLOOKUP(B127,Class!$A:$C,3,FALSE)</f>
+        <v>Form</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6" t="str">
+        <f>IF(ISBLANK(H127),"",VLOOKUP(H127,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6" t="str">
+        <f>IF(ISBLANK(J127),"",VLOOKUP(J127,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L127" s="3">
+        <f>$A$129</f>
+        <v>128</v>
+      </c>
+      <c r="M127" s="3" t="str">
+        <f>IF(ISBLANK(L127),"",VLOOKUP(L127,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L127,Field!$A:$D,4,FALSE))</f>
         <v>FormVariant.owner</v>
       </c>
-      <c r="U126" s="6"/>
-    </row>
-    <row r="127" spans="1:23">
-      <c r="A127" s="5">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="5">
+      <c r="T127" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V127" s="6"/>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="A128" s="5">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="5">
         <f>Class!$A$17</f>
         <v>16</v>
       </c>
-      <c r="C127" s="5" t="str">
-        <f>VLOOKUP(B127,Class!$A:$C,3,FALSE)</f>
-        <v>FormVariant</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5" t="str">
-        <f>IF(ISBLANK(H127),"",VLOOKUP(H127,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5" t="str">
-        <f>IF(ISBLANK(J127),"",VLOOKUP(J127,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5" t="str">
-        <f>IF(ISBLANK(L127),"",VLOOKUP(L127,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L127,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N127" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
-      <c r="W127" s="5"/>
-    </row>
-    <row r="128" spans="1:23">
-      <c r="A128" s="6">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="6">
-        <f>Class!$A$17</f>
-        <v>16</v>
-      </c>
-      <c r="C128" s="6" t="str">
+      <c r="C128" s="5" t="str">
         <f>VLOOKUP(B128,Class!$A:$C,3,FALSE)</f>
         <v>FormVariant</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6">
-        <f>Class!$A$16</f>
-        <v>15</v>
-      </c>
-      <c r="I128" s="6" t="str">
+      <c r="D128" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5" t="str">
         <f>IF(ISBLANK(H128),"",VLOOKUP(H128,Class!$A:$C,3,FALSE))</f>
-        <v>Form</v>
-      </c>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5" t="str">
         <f>IF(ISBLANK(J128),"",VLOOKUP(J128,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6" t="str">
+      <c r="L128" s="5"/>
+      <c r="M128" s="5" t="str">
         <f>IF(ISBLANK(L128),"",VLOOKUP(L128,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L128,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
-      <c r="S128" s="6"/>
-      <c r="T128" s="6"/>
-      <c r="U128" s="6"/>
-      <c r="V128" s="6"/>
-      <c r="W128" s="6"/>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="N128" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="6">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -11514,31 +11648,45 @@
         <f>VLOOKUP(B129,Class!$A:$C,3,FALSE)</f>
         <v>FormVariant</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>38</v>
+      <c r="D129" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="H129" s="6">
+        <f>Class!$A$16</f>
+        <v>15</v>
+      </c>
       <c r="I129" s="6" t="str">
         <f>IF(ISBLANK(H129),"",VLOOKUP(H129,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Form</v>
       </c>
       <c r="J129" s="6"/>
       <c r="K129" s="6" t="str">
         <f>IF(ISBLANK(J129),"",VLOOKUP(J129,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M129" s="3" t="str">
+      <c r="L129" s="6"/>
+      <c r="M129" s="6" t="str">
         <f>IF(ISBLANK(L129),"",VLOOKUP(L129,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L129,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
       <c r="U129" s="6"/>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="V129" s="6"/>
+      <c r="W129" s="6"/>
+      <c r="X129" s="6"/>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="6">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -11552,7 +11700,7 @@
         <v>FormVariant</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>38</v>
@@ -11573,9 +11721,9 @@
         <f>IF(ISBLANK(L130),"",VLOOKUP(L130,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L130,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U130" s="6"/>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="V130" s="6"/>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="6">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -11589,10 +11737,10 @@
         <v>FormVariant</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>478</v>
+        <v>530</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -11606,106 +11754,107 @@
         <f>IF(ISBLANK(J131),"",VLOOKUP(J131,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L131" s="3">
-        <f>$A$133</f>
-        <v>132</v>
-      </c>
       <c r="M131" s="3" t="str">
         <f>IF(ISBLANK(L131),"",VLOOKUP(L131,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L131,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V131" s="6"/>
+    </row>
+    <row r="132" spans="1:24">
+      <c r="A132" s="6">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="6">
+        <f>Class!$A$17</f>
+        <v>16</v>
+      </c>
+      <c r="C132" s="6" t="str">
+        <f>VLOOKUP(B132,Class!$A:$C,3,FALSE)</f>
+        <v>FormVariant</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6" t="str">
+        <f>IF(ISBLANK(H132),"",VLOOKUP(H132,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6" t="str">
+        <f>IF(ISBLANK(J132),"",VLOOKUP(J132,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L132" s="3">
+        <f>$A$134</f>
+        <v>133</v>
+      </c>
+      <c r="M132" s="3" t="str">
+        <f>IF(ISBLANK(L132),"",VLOOKUP(L132,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L132,Field!$A:$D,4,FALSE))</f>
         <v>Layout.owner</v>
       </c>
-      <c r="U131" s="6"/>
-    </row>
-    <row r="132" spans="1:23">
-      <c r="A132" s="5">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="5">
+      <c r="T132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V132" s="6"/>
+    </row>
+    <row r="133" spans="1:24">
+      <c r="A133" s="5">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="5">
         <f>Class!$A$18</f>
         <v>17</v>
       </c>
-      <c r="C132" s="5" t="str">
-        <f>VLOOKUP(B132,Class!$A:$C,3,FALSE)</f>
-        <v>Layout</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5" t="str">
-        <f>IF(ISBLANK(H132),"",VLOOKUP(H132,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5" t="str">
-        <f>IF(ISBLANK(J132),"",VLOOKUP(J132,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5" t="str">
-        <f>IF(ISBLANK(L132),"",VLOOKUP(L132,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L132,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N132" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
-      <c r="W132" s="5"/>
-    </row>
-    <row r="133" spans="1:23">
-      <c r="A133" s="6">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="6">
-        <f>Class!$A$18</f>
-        <v>17</v>
-      </c>
-      <c r="C133" s="6" t="str">
+      <c r="C133" s="5" t="str">
         <f>VLOOKUP(B133,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6">
-        <f>Class!$A$17</f>
-        <v>16</v>
-      </c>
-      <c r="I133" s="6" t="str">
+      <c r="D133" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5" t="str">
         <f>IF(ISBLANK(H133),"",VLOOKUP(H133,Class!$A:$C,3,FALSE))</f>
-        <v>FormVariant</v>
-      </c>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5" t="str">
         <f>IF(ISBLANK(J133),"",VLOOKUP(J133,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M133" s="3" t="str">
+      <c r="L133" s="5"/>
+      <c r="M133" s="5" t="str">
         <f>IF(ISBLANK(L133),"",VLOOKUP(L133,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L133,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U133" s="6"/>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="N133" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="6">
         <f t="shared" si="0"/>
         <v>133</v>
@@ -11719,17 +11868,20 @@
         <v>Layout</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="H134" s="6">
+        <f>Class!$A$17</f>
+        <v>16</v>
+      </c>
       <c r="I134" s="6" t="str">
         <f>IF(ISBLANK(H134),"",VLOOKUP(H134,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>FormVariant</v>
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="6" t="str">
@@ -11740,9 +11892,9 @@
         <f>IF(ISBLANK(L134),"",VLOOKUP(L134,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L134,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U134" s="6"/>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="V134" s="6"/>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="6">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -11756,10 +11908,10 @@
         <v>Layout</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>140</v>
+        <v>489</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -11773,17 +11925,13 @@
         <f>IF(ISBLANK(J135),"",VLOOKUP(J135,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L135" s="3">
-        <f>$A$136</f>
-        <v>135</v>
-      </c>
       <c r="M135" s="3" t="str">
         <f>IF(ISBLANK(L135),"",VLOOKUP(L135,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L135,Field!$A:$D,4,FALSE))</f>
-        <v>Layout.parent</v>
-      </c>
-      <c r="U135" s="6"/>
-    </row>
-    <row r="136" spans="1:23">
+        <v/>
+      </c>
+      <c r="V135" s="6"/>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="6">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -11797,36 +11945,34 @@
         <v>Layout</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>427</v>
+        <v>140</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="6">
-        <f>Class!$A$18</f>
-        <v>17</v>
-      </c>
+      <c r="H136" s="6"/>
       <c r="I136" s="6" t="str">
         <f>IF(ISBLANK(H136),"",VLOOKUP(H136,Class!$A:$C,3,FALSE))</f>
-        <v>Layout</v>
+        <v/>
       </c>
       <c r="J136" s="6"/>
       <c r="K136" s="6" t="str">
         <f>IF(ISBLANK(J136),"",VLOOKUP(J136,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
+      <c r="L136" s="3">
+        <f>$A$137</f>
+        <v>136</v>
+      </c>
       <c r="M136" s="3" t="str">
         <f>IF(ISBLANK(L136),"",VLOOKUP(L136,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L136,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="O136" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U136" s="6"/>
-    </row>
-    <row r="137" spans="1:23">
+        <v>Layout.parent</v>
+      </c>
+      <c r="V136" s="6"/>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="6">
         <f t="shared" si="0"/>
         <v>136</v>
@@ -11840,33 +11986,36 @@
         <v>Layout</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>493</v>
+        <v>141</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="H137" s="6">
+        <f>Class!$A$18</f>
+        <v>17</v>
+      </c>
       <c r="I137" s="6" t="str">
         <f>IF(ISBLANK(H137),"",VLOOKUP(H137,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J137" s="6">
-        <f>Enum!$A$4</f>
-        <v>3</v>
-      </c>
+        <v>Layout</v>
+      </c>
+      <c r="J137" s="6"/>
       <c r="K137" s="6" t="str">
         <f>IF(ISBLANK(J137),"",VLOOKUP(J137,Enum!$A:$C,3,FALSE))</f>
-        <v>LayoutType</v>
+        <v/>
       </c>
       <c r="M137" s="3" t="str">
         <f>IF(ISBLANK(L137),"",VLOOKUP(L137,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L137,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U137" s="6"/>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="O137" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V137" s="6"/>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="6">
         <f t="shared" si="0"/>
         <v>137</v>
@@ -11880,36 +12029,33 @@
         <v>Layout</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="6">
-        <f>Class!$A$6</f>
-        <v>5</v>
-      </c>
+      <c r="H138" s="6"/>
       <c r="I138" s="6" t="str">
         <f>IF(ISBLANK(H138),"",VLOOKUP(H138,Class!$A:$C,3,FALSE))</f>
-        <v>Field</v>
-      </c>
-      <c r="J138" s="6"/>
+        <v/>
+      </c>
+      <c r="J138" s="6">
+        <f>Enum!$A$4</f>
+        <v>3</v>
+      </c>
       <c r="K138" s="6" t="str">
         <f>IF(ISBLANK(J138),"",VLOOKUP(J138,Enum!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>LayoutType</v>
       </c>
       <c r="M138" s="3" t="str">
         <f>IF(ISBLANK(L138),"",VLOOKUP(L138,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L138,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O138" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U138" s="6"/>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="V138" s="6"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="6">
         <f t="shared" si="0"/>
         <v>138</v>
@@ -11923,7 +12069,7 @@
         <v>Layout</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>487</v>
@@ -11931,12 +12077,12 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6">
-        <f>Class!A13</f>
-        <v>12</v>
+        <f>Class!$A$6</f>
+        <v>5</v>
       </c>
       <c r="I139" s="6" t="str">
         <f>IF(ISBLANK(H139),"",VLOOKUP(H139,Class!$A:$C,3,FALSE))</f>
-        <v>Message</v>
+        <v>Field</v>
       </c>
       <c r="J139" s="6"/>
       <c r="K139" s="6" t="str">
@@ -11950,9 +12096,9 @@
       <c r="O139" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U139" s="6"/>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="V139" s="6"/>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="6">
         <f t="shared" si="0"/>
         <v>139</v>
@@ -11966,20 +12112,20 @@
         <v>Layout</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <f>Class!$A$15</f>
-        <v>14</v>
+        <f>Class!A13</f>
+        <v>12</v>
       </c>
       <c r="I140" s="6" t="str">
         <f>IF(ISBLANK(H140),"",VLOOKUP(H140,Class!$A:$C,3,FALSE))</f>
-        <v>Style</v>
+        <v>Message</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6" t="str">
@@ -11990,9 +12136,12 @@
         <f>IF(ISBLANK(L140),"",VLOOKUP(L140,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L140,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U140" s="6"/>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="O140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V140" s="6"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="6">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -12006,17 +12155,20 @@
         <v>Layout</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>490</v>
+        <v>141</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="H141" s="6">
+        <f>Class!$A$15</f>
+        <v>14</v>
+      </c>
       <c r="I141" s="6" t="str">
         <f>IF(ISBLANK(H141),"",VLOOKUP(H141,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Style</v>
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="6" t="str">
@@ -12027,12 +12179,9 @@
         <f>IF(ISBLANK(L141),"",VLOOKUP(L141,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L141,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O141" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U141" s="6"/>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="V141" s="6"/>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="6">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -12046,7 +12195,7 @@
         <v>Layout</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>490</v>
@@ -12070,9 +12219,9 @@
       <c r="O142" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U142" s="6"/>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="V142" s="6"/>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="6">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -12086,7 +12235,7 @@
         <v>Layout</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>490</v>
@@ -12110,9 +12259,9 @@
       <c r="O143" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U143" s="6"/>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="V143" s="6"/>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="6">
         <f t="shared" si="0"/>
         <v>143</v>
@@ -12126,7 +12275,7 @@
         <v>Layout</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>490</v>
@@ -12150,9 +12299,9 @@
       <c r="O144" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U144" s="6"/>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="V144" s="6"/>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="6">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -12166,7 +12315,7 @@
         <v>Layout</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>490</v>
@@ -12190,9 +12339,9 @@
       <c r="O145" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U145" s="6"/>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="V145" s="6"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="6">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -12206,7 +12355,7 @@
         <v>Layout</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>490</v>
@@ -12230,99 +12379,101 @@
       <c r="O146" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U146" s="6"/>
-    </row>
-    <row r="147" spans="1:23">
-      <c r="A147" s="5">
+      <c r="V146" s="6"/>
+    </row>
+    <row r="147" spans="1:24">
+      <c r="A147" s="6">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="6">
+        <f>Class!$A$18</f>
+        <v>17</v>
+      </c>
+      <c r="C147" s="6" t="str">
+        <f>VLOOKUP(B147,Class!$A:$C,3,FALSE)</f>
+        <v>Layout</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6" t="str">
+        <f>IF(ISBLANK(H147),"",VLOOKUP(H147,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6" t="str">
+        <f>IF(ISBLANK(J147),"",VLOOKUP(J147,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M147" s="3" t="str">
+        <f>IF(ISBLANK(L147),"",VLOOKUP(L147,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L147,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="O147" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V147" s="6"/>
+    </row>
+    <row r="148" spans="1:24">
+      <c r="A148" s="5">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="5">
         <f>Class!$A$19</f>
         <v>18</v>
       </c>
-      <c r="C147" s="5" t="str">
-        <f>VLOOKUP(B147,Class!$A:$C,3,FALSE)</f>
-        <v>Locale</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5" t="str">
-        <f>IF(ISBLANK(H147),"",VLOOKUP(H147,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5" t="str">
-        <f>IF(ISBLANK(J147),"",VLOOKUP(J147,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5" t="str">
-        <f>IF(ISBLANK(L147),"",VLOOKUP(L147,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L147,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N147" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="V147" s="5"/>
-      <c r="W147" s="5"/>
-    </row>
-    <row r="148" spans="1:23">
-      <c r="A148" s="3">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" s="5" t="str">
         <f>VLOOKUP(B148,Class!$A:$C,3,FALSE)</f>
         <v>Locale</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H148" s="6">
-        <f>Class!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="I148" s="6" t="str">
+      <c r="D148" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5" t="str">
         <f>IF(ISBLANK(H148),"",VLOOKUP(H148,Class!$A:$C,3,FALSE))</f>
-        <v>Project</v>
-      </c>
-      <c r="K148" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5" t="str">
         <f>IF(ISBLANK(J148),"",VLOOKUP(J148,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M148" s="3" t="str">
+      <c r="L148" s="5"/>
+      <c r="M148" s="5" t="str">
         <f>IF(ISBLANK(L148),"",VLOOKUP(L148,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L148,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U148" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="N148" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="3">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -12336,14 +12487,18 @@
         <v>Locale</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I149" s="3" t="str">
+        <v>282</v>
+      </c>
+      <c r="H149" s="6">
+        <f>Class!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="I149" s="6" t="str">
         <f>IF(ISBLANK(H149),"",VLOOKUP(H149,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Project</v>
       </c>
       <c r="K149" s="3" t="str">
         <f>IF(ISBLANK(J149),"",VLOOKUP(J149,Enum!$A:$C,3,FALSE))</f>
@@ -12353,11 +12508,11 @@
         <f>IF(ISBLANK(L149),"",VLOOKUP(L149,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L149,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U149" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="V149" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="3">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -12371,7 +12526,7 @@
         <v>Locale</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>280</v>
@@ -12388,115 +12543,102 @@
         <f>IF(ISBLANK(L150),"",VLOOKUP(L150,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L150,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U150" s="7" t="s">
+      <c r="V150" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
+      <c r="A151" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <f>Class!$A$19</f>
+        <v>18</v>
+      </c>
+      <c r="C151" s="3" t="str">
+        <f>VLOOKUP(B151,Class!$A:$C,3,FALSE)</f>
+        <v>Locale</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I151" s="3" t="str">
+        <f>IF(ISBLANK(H151),"",VLOOKUP(H151,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K151" s="3" t="str">
+        <f>IF(ISBLANK(J151),"",VLOOKUP(J151,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M151" s="3" t="str">
+        <f>IF(ISBLANK(L151),"",VLOOKUP(L151,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L151,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V151" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
-      <c r="A151" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="B151" s="5">
+    <row r="152" spans="1:24">
+      <c r="A152" s="5">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="5">
         <f>Class!$A$20</f>
         <v>19</v>
       </c>
-      <c r="C151" s="5" t="str">
-        <f>VLOOKUP(B151,Class!$A:$C,3,FALSE)</f>
-        <v>Otamesshi</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5" t="str">
-        <f>IF(ISBLANK(H151),"",VLOOKUP(H151,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5" t="str">
-        <f>IF(ISBLANK(J151),"",VLOOKUP(J151,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5" t="str">
-        <f>IF(ISBLANK(L151),"",VLOOKUP(L151,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L151,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N151" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V151" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W151" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
-      <c r="A152" s="6">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="B152" s="7">
-        <f>Class!$A$20</f>
-        <v>19</v>
-      </c>
-      <c r="C152" s="7" t="str">
+      <c r="C152" s="5" t="str">
         <f>VLOOKUP(B152,Class!$A:$C,3,FALSE)</f>
         <v>Otamesshi</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6">
-        <f>Class!$A$20</f>
-        <v>19</v>
-      </c>
-      <c r="I152" s="6" t="str">
+      <c r="D152" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5" t="str">
         <f>IF(ISBLANK(H152),"",VLOOKUP(H152,Class!$A:$C,3,FALSE))</f>
-        <v>Otamesshi</v>
-      </c>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6" t="str">
+        <v/>
+      </c>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5" t="str">
         <f>IF(ISBLANK(J152),"",VLOOKUP(J152,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6" t="str">
+      <c r="L152" s="5"/>
+      <c r="M152" s="5" t="str">
         <f>IF(ISBLANK(L152),"",VLOOKUP(L152,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L152,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-      <c r="T152" s="6"/>
-      <c r="U152" s="6"/>
-      <c r="V152" s="6"/>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="N152" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W152" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X152" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="6">
         <f t="shared" si="0"/>
         <v>152</v>
@@ -12510,30 +12652,30 @@
         <v>Otamesshi</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
+      <c r="H153" s="6">
+        <f>Class!$A$20</f>
+        <v>19</v>
+      </c>
       <c r="I153" s="6" t="str">
         <f>IF(ISBLANK(H153),"",VLOOKUP(H153,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Otamesshi</v>
       </c>
       <c r="J153" s="6"/>
       <c r="K153" s="6" t="str">
         <f>IF(ISBLANK(J153),"",VLOOKUP(J153,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L153" s="6">
-        <f>A152</f>
-        <v>151</v>
-      </c>
+      <c r="L153" s="6"/>
       <c r="M153" s="6" t="str">
         <f>IF(ISBLANK(L153),"",VLOOKUP(L153,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L153,Field!$A:$D,4,FALSE))</f>
-        <v>Otamesshi.owner</v>
+        <v/>
       </c>
       <c r="N153" s="6"/>
       <c r="O153" s="6"/>
@@ -12544,8 +12686,9 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="W153" s="6"/>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="6">
         <f t="shared" si="0"/>
         <v>153</v>
@@ -12559,30 +12702,30 @@
         <v>Otamesshi</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="6">
-        <f>Class!$A$20</f>
-        <v>19</v>
-      </c>
+      <c r="H154" s="6"/>
       <c r="I154" s="6" t="str">
         <f>IF(ISBLANK(H154),"",VLOOKUP(H154,Class!$A:$C,3,FALSE))</f>
-        <v>Otamesshi</v>
+        <v/>
       </c>
       <c r="J154" s="6"/>
       <c r="K154" s="6" t="str">
         <f>IF(ISBLANK(J154),"",VLOOKUP(J154,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L154" s="6"/>
+      <c r="L154" s="6">
+        <f>A153</f>
+        <v>152</v>
+      </c>
       <c r="M154" s="6" t="str">
         <f>IF(ISBLANK(L154),"",VLOOKUP(L154,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L154,Field!$A:$D,4,FALSE))</f>
-        <v/>
+        <v>Otamesshi.owner</v>
       </c>
       <c r="N154" s="6"/>
       <c r="O154" s="6"/>
@@ -12593,8 +12736,9 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="W154" s="6"/>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="6">
         <f t="shared" si="0"/>
         <v>154</v>
@@ -12608,30 +12752,30 @@
         <v>Otamesshi</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
+      <c r="H155" s="6">
+        <f>Class!$A$20</f>
+        <v>19</v>
+      </c>
       <c r="I155" s="6" t="str">
         <f>IF(ISBLANK(H155),"",VLOOKUP(H155,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Otamesshi</v>
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="6" t="str">
         <f>IF(ISBLANK(J155),"",VLOOKUP(J155,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L155" s="6">
-        <f>A154</f>
-        <v>153</v>
-      </c>
+      <c r="L155" s="6"/>
       <c r="M155" s="6" t="str">
         <f>IF(ISBLANK(L155),"",VLOOKUP(L155,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L155,Field!$A:$D,4,FALSE))</f>
-        <v>Otamesshi.related</v>
+        <v/>
       </c>
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
@@ -12642,8 +12786,9 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="W155" s="6"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="6">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -12657,132 +12802,138 @@
         <v>Otamesshi</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I156" s="3" t="str">
+        <v>146</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6" t="str">
         <f>IF(ISBLANK(H156),"",VLOOKUP(H156,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K156" s="3" t="str">
+      <c r="J156" s="6"/>
+      <c r="K156" s="6" t="str">
         <f>IF(ISBLANK(J156),"",VLOOKUP(J156,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M156" s="3" t="str">
+      <c r="L156" s="6">
+        <f>A155</f>
+        <v>154</v>
+      </c>
+      <c r="M156" s="6" t="str">
         <f>IF(ISBLANK(L156),"",VLOOKUP(L156,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L156,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="U156" s="3" t="str">
-        <f>D156</f>
-        <v>booleanValue</v>
-      </c>
-      <c r="V156" s="3" t="str">
-        <f>D156&amp;"です"</f>
-        <v>booleanValueです</v>
-      </c>
-      <c r="W156" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+        <v>Otamesshi.related</v>
+      </c>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+      <c r="W156" s="6"/>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="6">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="7">
         <f>Class!$A$20</f>
         <v>19</v>
       </c>
-      <c r="C157" s="6" t="str">
+      <c r="C157" s="7" t="str">
         <f>VLOOKUP(B157,Class!$A:$C,3,FALSE)</f>
         <v>Otamesshi</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F157" s="6">
-        <v>8</v>
-      </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6" t="str">
+      <c r="D157" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157" s="3" t="str">
         <f>IF(ISBLANK(H157),"",VLOOKUP(H157,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6" t="str">
+      <c r="K157" s="3" t="str">
         <f>IF(ISBLANK(J157),"",VLOOKUP(J157,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6" t="str">
+      <c r="M157" s="3" t="str">
         <f>IF(ISBLANK(L157),"",VLOOKUP(L157,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L157,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
-      <c r="W157" s="3" t="s">
+      <c r="V157" s="3" t="str">
+        <f>D157</f>
+        <v>booleanValue</v>
+      </c>
+      <c r="W157" s="3" t="str">
+        <f>D157&amp;"です"</f>
+        <v>booleanValueです</v>
+      </c>
+      <c r="X157" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" s="6">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="6">
         <f>Class!$A$20</f>
         <v>19</v>
       </c>
-      <c r="C158" s="7" t="str">
+      <c r="C158" s="6" t="str">
         <f>VLOOKUP(B158,Class!$A:$C,3,FALSE)</f>
         <v>Otamesshi</v>
       </c>
-      <c r="D158" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E158" s="7" t="s">
+      <c r="D158" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F158" s="3">
-        <v>16</v>
-      </c>
-      <c r="I158" s="3" t="str">
+      <c r="F158" s="6">
+        <v>8</v>
+      </c>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6" t="str">
         <f>IF(ISBLANK(H158),"",VLOOKUP(H158,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K158" s="3" t="str">
+      <c r="J158" s="6"/>
+      <c r="K158" s="6" t="str">
         <f>IF(ISBLANK(J158),"",VLOOKUP(J158,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M158" s="3" t="str">
+      <c r="L158" s="6"/>
+      <c r="M158" s="6" t="str">
         <f>IF(ISBLANK(L158),"",VLOOKUP(L158,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L158,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="Q158" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U158" s="3" t="str">
-        <f t="shared" ref="U158:U168" si="1">D158</f>
-        <v>shortValue</v>
-      </c>
-      <c r="W158" s="3" t="s">
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="X158" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" s="6">
         <f t="shared" si="0"/>
         <v>158</v>
@@ -12796,13 +12947,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F159" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I159" s="3" t="str">
         <f>IF(ISBLANK(H159),"",VLOOKUP(H159,Class!$A:$C,3,FALSE))</f>
@@ -12816,22 +12967,18 @@
         <f>IF(ISBLANK(L159),"",VLOOKUP(L159,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L159,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="R159" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U159" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>intValue</v>
+      <c r="Q159" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="V159" s="3" t="str">
-        <f t="shared" ref="V159:V168" si="2">D159&amp;"です"</f>
-        <v>intValueです</v>
-      </c>
-      <c r="W159" s="3" t="s">
+        <f t="shared" ref="V159:V169" si="1">D159</f>
+        <v>shortValue</v>
+      </c>
+      <c r="X159" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" s="6">
         <f t="shared" si="0"/>
         <v>159</v>
@@ -12845,10 +12992,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F160" s="3">
         <v>32</v>
@@ -12865,26 +13012,22 @@
         <f>IF(ISBLANK(L160),"",VLOOKUP(L160,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L160,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O160" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S160" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T160" s="6"/>
-      <c r="U160" s="3" t="str">
-        <f t="shared" ref="U160" si="3">D160</f>
-        <v>nullableValue</v>
+      <c r="R160" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="V160" s="3" t="str">
-        <f t="shared" ref="V160" si="4">D160&amp;"です"</f>
-        <v>nullableValueです</v>
-      </c>
-      <c r="W160" s="3" t="s">
+        <f t="shared" si="1"/>
+        <v>intValue</v>
+      </c>
+      <c r="W160" s="3" t="str">
+        <f t="shared" ref="W160:W169" si="2">D160&amp;"です"</f>
+        <v>intValueです</v>
+      </c>
+      <c r="X160" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" s="6">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -12898,13 +13041,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F161" s="3">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I161" s="3" t="str">
         <f>IF(ISBLANK(H161),"",VLOOKUP(H161,Class!$A:$C,3,FALSE))</f>
@@ -12918,32 +13061,27 @@
         <f>IF(ISBLANK(L161),"",VLOOKUP(L161,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L161,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="P161" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q161" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R161" s="6" t="b">
+      <c r="O161" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S161" s="6" t="b">
         <v>1</v>
       </c>
       <c r="T161" s="6"/>
-      <c r="U161" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>longValue</v>
-      </c>
+      <c r="U161" s="6"/>
       <c r="V161" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>longValueです</v>
-      </c>
-      <c r="W161" s="3" t="s">
+        <f t="shared" ref="V161" si="3">D161</f>
+        <v>nullableValue</v>
+      </c>
+      <c r="W161" s="3" t="str">
+        <f t="shared" ref="W161" si="4">D161&amp;"です"</f>
+        <v>nullableValueです</v>
+      </c>
+      <c r="X161" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" s="6">
         <f t="shared" si="0"/>
         <v>161</v>
@@ -12957,13 +13095,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F162" s="3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I162" s="3" t="str">
         <f>IF(ISBLANK(H162),"",VLOOKUP(H162,Class!$A:$C,3,FALSE))</f>
@@ -12983,19 +13121,27 @@
       <c r="Q162" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="U162" s="3" t="str">
+      <c r="R162" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S162" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>floatValue</v>
-      </c>
-      <c r="V162" s="3" t="str">
+        <v>longValue</v>
+      </c>
+      <c r="W162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>floatValueです</v>
-      </c>
-      <c r="W162" s="3" t="s">
+        <v>longValueです</v>
+      </c>
+      <c r="X162" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" s="6">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -13009,13 +13155,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F163" s="3">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I163" s="3" t="str">
         <f>IF(ISBLANK(H163),"",VLOOKUP(H163,Class!$A:$C,3,FALSE))</f>
@@ -13029,22 +13175,25 @@
         <f>IF(ISBLANK(L163),"",VLOOKUP(L163,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L163,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="R163" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S163" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T163" s="6"/>
-      <c r="U163" s="3" t="str">
+      <c r="P163" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V163" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>doubleValue</v>
-      </c>
-      <c r="W163" s="3" t="s">
+        <v>floatValue</v>
+      </c>
+      <c r="W163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>floatValueです</v>
+      </c>
+      <c r="X163" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" s="6">
         <f t="shared" si="0"/>
         <v>163</v>
@@ -13058,16 +13207,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F164" s="3">
-        <v>10</v>
-      </c>
-      <c r="G164" s="3">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="I164" s="3" t="str">
         <f>IF(ISBLANK(H164),"",VLOOKUP(H164,Class!$A:$C,3,FALSE))</f>
@@ -13081,12 +13227,6 @@
         <f>IF(ISBLANK(L164),"",VLOOKUP(L164,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L164,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="P164" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q164" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="R164" s="6" t="b">
         <v>1</v>
       </c>
@@ -13094,15 +13234,16 @@
         <v>1</v>
       </c>
       <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
       <c r="V164" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>numericValueです</v>
-      </c>
-      <c r="W164" s="3" t="s">
+        <f t="shared" si="1"/>
+        <v>doubleValue</v>
+      </c>
+      <c r="X164" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" s="6">
         <f t="shared" si="0"/>
         <v>164</v>
@@ -13116,10 +13257,16 @@
         <v>Otamesshi</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="F165" s="3">
+        <v>10</v>
+      </c>
+      <c r="G165" s="3">
+        <v>3</v>
       </c>
       <c r="I165" s="3" t="str">
         <f>IF(ISBLANK(H165),"",VLOOKUP(H165,Class!$A:$C,3,FALSE))</f>
@@ -13133,6 +13280,12 @@
         <f>IF(ISBLANK(L165),"",VLOOKUP(L165,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L165,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
+      <c r="P165" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="R165" s="6" t="b">
         <v>1</v>
       </c>
@@ -13140,19 +13293,16 @@
         <v>1</v>
       </c>
       <c r="T165" s="6"/>
-      <c r="U165" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>dateValue</v>
-      </c>
-      <c r="V165" s="3" t="str">
+      <c r="U165" s="6"/>
+      <c r="W165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>dateValueです</v>
-      </c>
-      <c r="W165" s="3" t="s">
+        <v>numericValueです</v>
+      </c>
+      <c r="X165" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" s="6">
         <f t="shared" si="0"/>
         <v>165</v>
@@ -13166,10 +13316,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I166" s="3" t="str">
         <f>IF(ISBLANK(H166),"",VLOOKUP(H166,Class!$A:$C,3,FALSE))</f>
@@ -13183,202 +13333,216 @@
         <f>IF(ISBLANK(L166),"",VLOOKUP(L166,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L166,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U166" s="3" t="str">
+      <c r="R166" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S166" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>dateValue</v>
+      </c>
+      <c r="W166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dateValueです</v>
+      </c>
+      <c r="X166" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
+      <c r="A167" s="6">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="7">
+        <f>Class!$A$20</f>
+        <v>19</v>
+      </c>
+      <c r="C167" s="7" t="str">
+        <f>VLOOKUP(B167,Class!$A:$C,3,FALSE)</f>
+        <v>Otamesshi</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I167" s="3" t="str">
+        <f>IF(ISBLANK(H167),"",VLOOKUP(H167,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K167" s="3" t="str">
+        <f>IF(ISBLANK(J167),"",VLOOKUP(J167,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M167" s="3" t="str">
+        <f>IF(ISBLANK(L167),"",VLOOKUP(L167,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L167,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V167" s="3" t="str">
         <f t="shared" si="1"/>
         <v>strValue</v>
       </c>
-      <c r="V166" s="3" t="str">
+      <c r="W167" s="3" t="str">
         <f t="shared" si="2"/>
         <v>strValueです</v>
       </c>
-      <c r="W166" s="3" t="s">
+      <c r="X167" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
-      <c r="A167" s="5">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="B167" s="5">
+    <row r="168" spans="1:24">
+      <c r="A168" s="5">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="5">
         <f>Class!$A$21</f>
         <v>20</v>
       </c>
-      <c r="C167" s="5" t="str">
-        <f>VLOOKUP(B167,Class!$A:$C,3,FALSE)</f>
+      <c r="C168" s="5" t="str">
+        <f>VLOOKUP(B168,Class!$A:$C,3,FALSE)</f>
         <v>Namihei</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D168" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E168" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5" t="str">
-        <f>IF(ISBLANK(H167),"",VLOOKUP(H167,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5" t="str">
-        <f>IF(ISBLANK(J167),"",VLOOKUP(J167,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5" t="str">
-        <f>IF(ISBLANK(L167),"",VLOOKUP(L167,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L167,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N167" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5" t="str">
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5" t="str">
+        <f>IF(ISBLANK(H168),"",VLOOKUP(H168,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5" t="str">
+        <f>IF(ISBLANK(J168),"",VLOOKUP(J168,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5" t="str">
+        <f>IF(ISBLANK(L168),"",VLOOKUP(L168,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L168,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N168" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+      <c r="V168" s="5" t="str">
         <f t="shared" si="1"/>
         <v>namiheiId</v>
       </c>
-      <c r="V167" s="5" t="str">
+      <c r="W168" s="5" t="str">
         <f t="shared" si="2"/>
         <v>namiheiIdです</v>
       </c>
-      <c r="W167" s="5"/>
-    </row>
-    <row r="168" spans="1:23">
-      <c r="A168" s="6">
-        <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="B168" s="6">
+      <c r="X168" s="5"/>
+    </row>
+    <row r="169" spans="1:24">
+      <c r="A169" s="6">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="6">
         <f>Class!$A$21</f>
         <v>20</v>
       </c>
-      <c r="C168" s="6" t="str">
-        <f>VLOOKUP(B168,Class!$A:$C,3,FALSE)</f>
+      <c r="C169" s="6" t="str">
+        <f>VLOOKUP(B169,Class!$A:$C,3,FALSE)</f>
         <v>Namihei</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I168" s="3" t="str">
-        <f>IF(ISBLANK(H168),"",VLOOKUP(H168,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K168" s="3" t="str">
-        <f>IF(ISBLANK(J168),"",VLOOKUP(J168,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M168" s="3" t="str">
-        <f>IF(ISBLANK(L168),"",VLOOKUP(L168,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L168,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="U168" s="7" t="str">
+      <c r="I169" s="3" t="str">
+        <f>IF(ISBLANK(H169),"",VLOOKUP(H169,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K169" s="3" t="str">
+        <f>IF(ISBLANK(J169),"",VLOOKUP(J169,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M169" s="3" t="str">
+        <f>IF(ISBLANK(L169),"",VLOOKUP(L169,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L169,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V169" s="7" t="str">
         <f t="shared" si="1"/>
         <v>name</v>
       </c>
-      <c r="V168" s="7" t="str">
+      <c r="W169" s="7" t="str">
         <f t="shared" si="2"/>
         <v>nameです</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
-      <c r="A169" s="5">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="B169" s="5">
+    <row r="170" spans="1:24">
+      <c r="A170" s="5">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="5">
         <f>Class!$A$22</f>
         <v>21</v>
       </c>
-      <c r="C169" s="5" t="str">
-        <f>VLOOKUP(B169,Class!$A:$C,3,FALSE)</f>
-        <v>Sazae</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5" t="str">
-        <f>IF(ISBLANK(H169),"",VLOOKUP(H169,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5" t="str">
-        <f>IF(ISBLANK(J169),"",VLOOKUP(J169,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5" t="str">
-        <f>IF(ISBLANK(L169),"",VLOOKUP(L169,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L169,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N169" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5"/>
-      <c r="V169" s="5"/>
-      <c r="W169" s="5"/>
-    </row>
-    <row r="170" spans="1:23">
-      <c r="A170" s="6">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="B170" s="6">
-        <f>Class!$A$22</f>
-        <v>21</v>
-      </c>
-      <c r="C170" s="6" t="str">
+      <c r="C170" s="5" t="str">
         <f>VLOOKUP(B170,Class!$A:$C,3,FALSE)</f>
         <v>Sazae</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H170" s="3">
-        <f>Class!$A$21</f>
-        <v>20</v>
-      </c>
-      <c r="I170" s="3" t="str">
+      <c r="D170" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5" t="str">
         <f>IF(ISBLANK(H170),"",VLOOKUP(H170,Class!$A:$C,3,FALSE))</f>
-        <v>Namihei</v>
-      </c>
-      <c r="K170" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5" t="str">
         <f>IF(ISBLANK(J170),"",VLOOKUP(J170,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M170" s="3" t="str">
+      <c r="L170" s="5"/>
+      <c r="M170" s="5" t="str">
         <f>IF(ISBLANK(L170),"",VLOOKUP(L170,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L170,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N170" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="N170" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" s="6">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -13392,14 +13556,18 @@
         <v>Sazae</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="H171" s="3">
+        <f>Class!$A$21</f>
+        <v>20</v>
       </c>
       <c r="I171" s="3" t="str">
         <f>IF(ISBLANK(H171),"",VLOOKUP(H171,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Namihei</v>
       </c>
       <c r="K171" s="3" t="str">
         <f>IF(ISBLANK(J171),"",VLOOKUP(J171,Enum!$A:$C,3,FALSE))</f>
@@ -13409,106 +13577,103 @@
         <f>IF(ISBLANK(L171),"",VLOOKUP(L171,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L171,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U171" s="7" t="str">
-        <f t="shared" ref="U171" si="5">D171</f>
+      <c r="N171" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
+      <c r="A172" s="6">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="6">
+        <f>Class!$A$22</f>
+        <v>21</v>
+      </c>
+      <c r="C172" s="6" t="str">
+        <f>VLOOKUP(B172,Class!$A:$C,3,FALSE)</f>
+        <v>Sazae</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I172" s="3" t="str">
+        <f>IF(ISBLANK(H172),"",VLOOKUP(H172,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K172" s="3" t="str">
+        <f>IF(ISBLANK(J172),"",VLOOKUP(J172,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M172" s="3" t="str">
+        <f>IF(ISBLANK(L172),"",VLOOKUP(L172,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L172,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V172" s="7" t="str">
+        <f t="shared" ref="V172" si="5">D172</f>
         <v>name</v>
       </c>
-      <c r="V171" s="7" t="str">
-        <f t="shared" ref="V171" si="6">D171&amp;"です"</f>
+      <c r="W172" s="7" t="str">
+        <f t="shared" ref="W172" si="6">D172&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
-      <c r="A172" s="5">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="B172" s="5">
+    <row r="173" spans="1:24">
+      <c r="A173" s="5">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="5">
         <f>Class!$A$23</f>
         <v>22</v>
       </c>
-      <c r="C172" s="5" t="str">
-        <f>VLOOKUP(B172,Class!$A:$C,3,FALSE)</f>
-        <v>Katsuo</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5" t="str">
-        <f>IF(ISBLANK(H172),"",VLOOKUP(H172,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5" t="str">
-        <f>IF(ISBLANK(J172),"",VLOOKUP(J172,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5" t="str">
-        <f>IF(ISBLANK(L172),"",VLOOKUP(L172,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L172,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N172" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5"/>
-      <c r="V172" s="5"/>
-      <c r="W172" s="5"/>
-    </row>
-    <row r="173" spans="1:23">
-      <c r="A173" s="6">
-        <f t="shared" ref="A173:A179" si="7">ROW()-1</f>
-        <v>172</v>
-      </c>
-      <c r="B173" s="6">
-        <f>Class!$A$23</f>
-        <v>22</v>
-      </c>
-      <c r="C173" s="6" t="str">
+      <c r="C173" s="5" t="str">
         <f>VLOOKUP(B173,Class!$A:$C,3,FALSE)</f>
         <v>Katsuo</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H173" s="3">
-        <f>Class!$A$21</f>
-        <v>20</v>
-      </c>
-      <c r="I173" s="3" t="str">
+      <c r="D173" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5" t="str">
         <f>IF(ISBLANK(H173),"",VLOOKUP(H173,Class!$A:$C,3,FALSE))</f>
-        <v>Namihei</v>
-      </c>
-      <c r="K173" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5" t="str">
         <f>IF(ISBLANK(J173),"",VLOOKUP(J173,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M173" s="3" t="str">
+      <c r="L173" s="5"/>
+      <c r="M173" s="5" t="str">
         <f>IF(ISBLANK(L173),"",VLOOKUP(L173,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L173,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N173" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="N173" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="5"/>
+      <c r="W173" s="5"/>
+      <c r="X173" s="5"/>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A174:A180" si="7">ROW()-1</f>
         <v>173</v>
       </c>
       <c r="B174" s="6">
@@ -13520,14 +13685,18 @@
         <v>Katsuo</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="H174" s="3">
+        <f>Class!$A$21</f>
+        <v>20</v>
       </c>
       <c r="I174" s="3" t="str">
         <f>IF(ISBLANK(H174),"",VLOOKUP(H174,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Namihei</v>
       </c>
       <c r="K174" s="3" t="str">
         <f>IF(ISBLANK(J174),"",VLOOKUP(J174,Enum!$A:$C,3,FALSE))</f>
@@ -13537,106 +13706,103 @@
         <f>IF(ISBLANK(L174),"",VLOOKUP(L174,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L174,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U174" s="7" t="str">
-        <f t="shared" ref="U174" si="8">D174</f>
+      <c r="N174" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
+      <c r="A175" s="6">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="6">
+        <f>Class!$A$23</f>
+        <v>22</v>
+      </c>
+      <c r="C175" s="6" t="str">
+        <f>VLOOKUP(B175,Class!$A:$C,3,FALSE)</f>
+        <v>Katsuo</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I175" s="3" t="str">
+        <f>IF(ISBLANK(H175),"",VLOOKUP(H175,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K175" s="3" t="str">
+        <f>IF(ISBLANK(J175),"",VLOOKUP(J175,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M175" s="3" t="str">
+        <f>IF(ISBLANK(L175),"",VLOOKUP(L175,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L175,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V175" s="7" t="str">
+        <f t="shared" ref="V175" si="8">D175</f>
         <v>name</v>
       </c>
-      <c r="V174" s="7" t="str">
-        <f t="shared" ref="V174" si="9">D174&amp;"です"</f>
+      <c r="W175" s="7" t="str">
+        <f t="shared" ref="W175" si="9">D175&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
-      <c r="A175" s="5">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="B175" s="5">
+    <row r="176" spans="1:24">
+      <c r="A176" s="5">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="5">
         <f>Class!$A$24</f>
         <v>23</v>
       </c>
-      <c r="C175" s="5" t="str">
-        <f>VLOOKUP(B175,Class!$A:$C,3,FALSE)</f>
-        <v>Wakame</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5" t="str">
-        <f>IF(ISBLANK(H175),"",VLOOKUP(H175,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5" t="str">
-        <f>IF(ISBLANK(J175),"",VLOOKUP(J175,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L175" s="5"/>
-      <c r="M175" s="5" t="str">
-        <f>IF(ISBLANK(L175),"",VLOOKUP(L175,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L175,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N175" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5"/>
-      <c r="V175" s="5"/>
-      <c r="W175" s="5"/>
-    </row>
-    <row r="176" spans="1:23">
-      <c r="A176" s="6">
-        <f t="shared" si="7"/>
-        <v>175</v>
-      </c>
-      <c r="B176" s="6">
-        <f>Class!$A$24</f>
-        <v>23</v>
-      </c>
-      <c r="C176" s="6" t="str">
+      <c r="C176" s="5" t="str">
         <f>VLOOKUP(B176,Class!$A:$C,3,FALSE)</f>
         <v>Wakame</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H176" s="3">
-        <f>Class!$A$21</f>
-        <v>20</v>
-      </c>
-      <c r="I176" s="3" t="str">
+      <c r="D176" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5" t="str">
         <f>IF(ISBLANK(H176),"",VLOOKUP(H176,Class!$A:$C,3,FALSE))</f>
-        <v>Namihei</v>
-      </c>
-      <c r="K176" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5" t="str">
         <f>IF(ISBLANK(J176),"",VLOOKUP(J176,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M176" s="3" t="str">
+      <c r="L176" s="5"/>
+      <c r="M176" s="5" t="str">
         <f>IF(ISBLANK(L176),"",VLOOKUP(L176,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L176,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N176" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="N176" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
       <c r="B177" s="6">
@@ -13648,14 +13814,18 @@
         <v>Wakame</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="H177" s="3">
+        <f>Class!$A$21</f>
+        <v>20</v>
       </c>
       <c r="I177" s="3" t="str">
         <f>IF(ISBLANK(H177),"",VLOOKUP(H177,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Namihei</v>
       </c>
       <c r="K177" s="3" t="str">
         <f>IF(ISBLANK(J177),"",VLOOKUP(J177,Enum!$A:$C,3,FALSE))</f>
@@ -13665,106 +13835,103 @@
         <f>IF(ISBLANK(L177),"",VLOOKUP(L177,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L177,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U177" s="7" t="str">
-        <f t="shared" ref="U177" si="10">D177</f>
+      <c r="N177" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="A178" s="6">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="6">
+        <f>Class!$A$24</f>
+        <v>23</v>
+      </c>
+      <c r="C178" s="6" t="str">
+        <f>VLOOKUP(B178,Class!$A:$C,3,FALSE)</f>
+        <v>Wakame</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" s="3" t="str">
+        <f>IF(ISBLANK(H178),"",VLOOKUP(H178,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K178" s="3" t="str">
+        <f>IF(ISBLANK(J178),"",VLOOKUP(J178,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M178" s="3" t="str">
+        <f>IF(ISBLANK(L178),"",VLOOKUP(L178,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L178,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V178" s="7" t="str">
+        <f t="shared" ref="V178" si="10">D178</f>
         <v>name</v>
       </c>
-      <c r="V177" s="7" t="str">
-        <f t="shared" ref="V177" si="11">D177&amp;"です"</f>
+      <c r="W178" s="7" t="str">
+        <f t="shared" ref="W178" si="11">D178&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
-      <c r="A178" s="5">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="B178" s="5">
+    <row r="179" spans="1:24">
+      <c r="A179" s="5">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="5">
         <f>Class!$A$25</f>
         <v>24</v>
       </c>
-      <c r="C178" s="5" t="str">
-        <f>VLOOKUP(B178,Class!$A:$C,3,FALSE)</f>
-        <v>Tara</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5" t="str">
-        <f>IF(ISBLANK(H178),"",VLOOKUP(H178,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J178" s="5"/>
-      <c r="K178" s="5" t="str">
-        <f>IF(ISBLANK(J178),"",VLOOKUP(J178,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L178" s="5"/>
-      <c r="M178" s="5" t="str">
-        <f>IF(ISBLANK(L178),"",VLOOKUP(L178,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L178,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N178" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5"/>
-      <c r="V178" s="5"/>
-      <c r="W178" s="5"/>
-    </row>
-    <row r="179" spans="1:23">
-      <c r="A179" s="6">
-        <f t="shared" si="7"/>
-        <v>178</v>
-      </c>
-      <c r="B179" s="6">
-        <f>Class!$A$25</f>
-        <v>24</v>
-      </c>
-      <c r="C179" s="6" t="str">
+      <c r="C179" s="5" t="str">
         <f>VLOOKUP(B179,Class!$A:$C,3,FALSE)</f>
         <v>Tara</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H179" s="3">
-        <f>Class!$A$22</f>
-        <v>21</v>
-      </c>
-      <c r="I179" s="3" t="str">
+      <c r="D179" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5" t="str">
         <f>IF(ISBLANK(H179),"",VLOOKUP(H179,Class!$A:$C,3,FALSE))</f>
-        <v>Sazae</v>
-      </c>
-      <c r="K179" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5" t="str">
         <f>IF(ISBLANK(J179),"",VLOOKUP(J179,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M179" s="3" t="str">
+      <c r="L179" s="5"/>
+      <c r="M179" s="5" t="str">
         <f>IF(ISBLANK(L179),"",VLOOKUP(L179,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L179,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="N179" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="N179" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
+      <c r="W179" s="5"/>
+      <c r="X179" s="5"/>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>179</v>
       </c>
       <c r="B180" s="6">
@@ -13776,14 +13943,18 @@
         <v>Tara</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="H180" s="3">
+        <f>Class!$A$22</f>
+        <v>21</v>
       </c>
       <c r="I180" s="3" t="str">
         <f>IF(ISBLANK(H180),"",VLOOKUP(H180,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Sazae</v>
       </c>
       <c r="K180" s="3" t="str">
         <f>IF(ISBLANK(J180),"",VLOOKUP(J180,Enum!$A:$C,3,FALSE))</f>
@@ -13793,17 +13964,52 @@
         <f>IF(ISBLANK(L180),"",VLOOKUP(L180,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L180,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="U180" s="7" t="str">
-        <f t="shared" ref="U180" si="12">D180</f>
+      <c r="N180" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="6">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="6">
+        <f>Class!$A$25</f>
+        <v>24</v>
+      </c>
+      <c r="C181" s="6" t="str">
+        <f>VLOOKUP(B181,Class!$A:$C,3,FALSE)</f>
+        <v>Tara</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I181" s="3" t="str">
+        <f>IF(ISBLANK(H181),"",VLOOKUP(H181,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K181" s="3" t="str">
+        <f>IF(ISBLANK(J181),"",VLOOKUP(J181,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M181" s="3" t="str">
+        <f>IF(ISBLANK(L181),"",VLOOKUP(L181,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L181,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V181" s="7" t="str">
+        <f t="shared" ref="V181" si="12">D181</f>
         <v>name</v>
       </c>
-      <c r="V180" s="7" t="str">
-        <f t="shared" ref="V180" si="13">D180&amp;"です"</f>
+      <c r="W181" s="7" t="str">
+        <f t="shared" ref="W181" si="13">D181&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X181" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/input.xlsx
+++ b/doc/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiida\github\builder\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9742950-8A51-4188-BAFC-3248DF8D5B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED6EA97-E6B2-45E9-89AB-5D35C4302B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6133,10 +6133,10 @@
   <dimension ref="A1:X181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6945,6 +6945,9 @@
       <c r="N17" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="O17" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V17" s="7" t="s">
         <v>302</v>
       </c>
@@ -7616,6 +7619,9 @@
       <c r="N32" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="O32" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V32" s="7" t="s">
         <v>302</v>
       </c>
@@ -7996,6 +8002,9 @@
         <f>IF(ISBLANK(L41),"",VLOOKUP(L41,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L41,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
+      <c r="O41" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V41" s="7" t="s">
         <v>125</v>
       </c>
@@ -8035,6 +8044,9 @@
         <f>IF(ISBLANK(L42),"",VLOOKUP(L42,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L42,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
+      <c r="O42" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V42" s="7" t="s">
         <v>126</v>
       </c>
@@ -8073,6 +8085,9 @@
       <c r="M43" s="3" t="str">
         <f>IF(ISBLANK(L43),"",VLOOKUP(L43,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L43,Field!$A:$D,4,FALSE))</f>
         <v/>
+      </c>
+      <c r="O43" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>127</v>
@@ -8608,6 +8623,9 @@
         <v/>
       </c>
       <c r="N57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V57" s="7" t="s">
@@ -9538,6 +9556,9 @@
       <c r="N79" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="O79" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V79" s="7" t="s">
         <v>302</v>
       </c>
@@ -10007,6 +10028,9 @@
         <v/>
       </c>
       <c r="N90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V90" s="7" t="s">
@@ -10412,6 +10436,9 @@
         <v/>
       </c>
       <c r="N99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V99" s="7" t="s">
@@ -12179,6 +12206,9 @@
         <f>IF(ISBLANK(L141),"",VLOOKUP(L141,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L141,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
+      <c r="O141" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V141" s="6"/>
     </row>
     <row r="142" spans="1:24">
@@ -12778,7 +12808,9 @@
         <v/>
       </c>
       <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
+      <c r="O155" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>

--- a/doc/input.xlsx
+++ b/doc/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiida\github\builder\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED395C9-5095-4C7B-95B7-6A5708B1F508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6278AAE6-5043-43C3-A07B-9105D343DCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="614">
   <si>
     <t>classId</t>
     <phoneticPr fontId="1"/>
@@ -4514,100 +4514,98 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C10E577-100B-4BAB-8A07-F8768560B049}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>402</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>400</v>
+      <c r="C1" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="U1" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:20">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -4619,21 +4617,21 @@
       <c r="C2" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="K2" s="5" t="s">
         <v>408</v>
       </c>
@@ -4644,27 +4642,24 @@
         <v>408</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q2" s="5" t="s">
         <v>405</v>
       </c>
+      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="T2" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="U2" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -4676,21 +4671,18 @@
       <c r="C3" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
         <f>$A$2</f>
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <f>ROW()-1</f>
         <v>3</v>
@@ -4702,21 +4694,18 @@
       <c r="C4" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3">
         <f>$A$2</f>
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <f>ROW()-1</f>
         <v>4</v>
@@ -4728,21 +4717,18 @@
       <c r="C5" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3">
         <f>$A$2</f>
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <f>ROW()-1</f>
         <v>5</v>
@@ -4754,15 +4740,15 @@
       <c r="C6" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="H6" s="3" t="s">
         <v>413</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>414</v>
@@ -4773,13 +4759,10 @@
       <c r="M6" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <f t="shared" ref="A7" si="0">ROW()-1</f>
         <v>6</v>
@@ -4791,21 +4774,21 @@
       <c r="C7" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="3">
         <f>$A$6</f>
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>446</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>447</v>
@@ -4817,15 +4800,12 @@
         <v>447</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="O7" s="3" t="s">
         <v>421</v>
       </c>
+      <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <f>ROW()-1</f>
         <v>7</v>
@@ -4837,14 +4817,14 @@
       <c r="C8" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>419</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>420</v>
@@ -4856,13 +4836,10 @@
         <v>420</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="O8" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <f>ROW()-1</f>
         <v>8</v>
@@ -4874,21 +4851,21 @@
       <c r="C9" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
         <f>$A$8</f>
         <v>7</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>462</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>423</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>438</v>
@@ -4899,11 +4876,8 @@
       <c r="M9" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <f>ROW()-1</f>
         <v>9</v>
@@ -4915,21 +4889,18 @@
       <c r="C10" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
         <f>A9</f>
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <f>ROW()-1</f>
         <v>10</v>
@@ -4939,19 +4910,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>448</v>
+      <c r="J11" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>438</v>
@@ -4960,9 +4931,6 @@
         <v>438</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="N11" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6584,10 +6552,10 @@
   <dimension ref="A1:X189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N136" sqref="N136"/>
+      <selection pane="bottomRight" activeCell="R160" sqref="R160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6730,7 +6698,9 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="R2" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -7551,7 +7521,9 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="R21" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -8225,7 +8197,9 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="R36" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
@@ -9261,7 +9235,9 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+      <c r="R62" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
@@ -9590,7 +9566,9 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
+      <c r="R70" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
@@ -10628,7 +10606,9 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
+      <c r="R94" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
@@ -11002,7 +10982,9 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
+      <c r="R102" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
@@ -11877,7 +11859,9 @@
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
+      <c r="R123" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
@@ -12045,7 +12029,9 @@
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
+      <c r="R128" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
@@ -12253,7 +12239,9 @@
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
+      <c r="R134" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
@@ -12467,7 +12455,9 @@
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
+      <c r="R140" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>

--- a/doc/input.xlsx
+++ b/doc/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiida\github\builder\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16337500-94FF-4C51-91C8-E54854C87DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B1C12-E9A5-4E4E-BBED-0CA7183E35B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Locale" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Field!$A$1:$X$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Field!$A$1:$X$187</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="635">
   <si>
     <t>classId</t>
     <phoneticPr fontId="1"/>
@@ -2597,30 +2597,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メッセージ表示要素</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>messageRefを出力する</t>
-    <rPh sb="11" eb="13">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fieldRefのデータを出力する</t>
-    <rPh sb="13" eb="15">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールド出力要素</t>
     <rPh sb="5" eb="7">
       <t>シュツリョク</t>
@@ -2631,13 +2607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fieldRefのデータを入出力する</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ページセットId</t>
   </si>
   <si>
@@ -2898,34 +2867,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>const</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象フィールドと対象メッセージは排他的に使用</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ハイタテキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>targetFieldId:INTEGER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>constMessageId:INTEGER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>styleStyleId:INTEGER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3028,42 +2969,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DOCK_LAYOUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドックレイアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッキレイアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数レイアウトを重ねて配置するレイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MESSAGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LABEL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3078,16 +2983,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fieldRefのラベル部を出力する</t>
-    <rPh sb="12" eb="13">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FIELD</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3106,15 +3001,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DECK_LAYOUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ja</t>
-  </si>
-  <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ページセット一覧</t>
@@ -3127,10 +3014,6 @@
     <t>Widgetパラメータ</t>
   </si>
   <si>
-    <t>BASIC_LAYOUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SETデータをリスト表示する。内部にSET先の項目を定義する。</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
@@ -3178,26 +3061,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BASIC_LAYOUT又は(V/H)LISTの垂直スクロールバー</t>
-    <rPh sb="12" eb="13">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スイチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BASIC_LAYOUT又は(V/H)LISTの水平スクロールバー</t>
-    <rPh sb="12" eb="13">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スイヘイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V_LIST</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3214,84 +3077,212 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPLIT_LAYOUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分割レイアウト</t>
+    <t>SIMPLE_PANE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARTED_PANE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TABBED_PANE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ領域</t>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分割領域</t>
     <rPh sb="0" eb="2">
       <t>ブンカツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数レイアウトを上下左右に配置する●グループ間にサイズ調整用のスプリッタがある</t>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本領域</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cref</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eref</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mref</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象クラス</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象列挙</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相互に排他的</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハイタテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mrefMessageId:INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ領域切り替え用のタブ</t>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数レイアウトを位置指定通り配置（スクロール可）</t>
     <rPh sb="0" eb="2">
       <t>フクスウ</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数レイアウトを上下左右に分割配置</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
     <rPh sb="8" eb="12">
       <t>ジョウゲサユウ</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ハイチ</t>
     </rPh>
-    <rPh sb="22" eb="23">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数レイアウトを位置指定でまとめる●スクロールの仕組みがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数レイアウトをタブ切り替え可能に配置</t>
     <rPh sb="0" eb="2">
       <t>フクスウ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PILED_LAYOUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重ねレイアウト</t>
-    <rPh sb="0" eb="1">
-      <t>カサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重ねレイアウトの表示切替用。文言はmessageRefを使用</t>
-    <rPh sb="0" eb="1">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キリカエ</t>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>ヨウ</t>
+      <t>カ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIMPLE_LAYOUT又は(V/H)LISTの垂直スクロールバー</t>
+    <rPh sb="13" eb="14">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIMPLE_LAYOUT又は(V/H)LISTの水平スクロールバー</t>
+    <rPh sb="13" eb="14">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cre/eref/frefのラベル部又はmrefを出力する</t>
+    <rPh sb="17" eb="18">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frefのデータを出力する</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frefのデータを入出力する</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3300,7 +3291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3318,13 +3309,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3351,7 +3335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3386,7 +3370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3399,10 +3383,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3685,7 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBFA650-D63D-4A0A-BD45-40BA05B1C7E1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3774,9 +3757,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F11A32-C39A-4086-9806-A9899284A4EA}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3784,7 +3769,7 @@
     <col min="2" max="2" width="19.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.4140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.08203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
@@ -4071,7 +4056,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B19" s="5">
         <f>Enum!$A$4</f>
@@ -4081,16 +4066,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="B20" s="6">
         <f>Enum!$A$4</f>
@@ -4100,16 +4085,16 @@
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="B21" s="6">
         <f>Enum!$A$4</f>
@@ -4119,16 +4104,16 @@
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B22" s="6">
         <f>Enum!$A$4</f>
@@ -4138,16 +4123,16 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B23" s="6">
         <f>Enum!$A$4</f>
@@ -4157,15 +4142,15 @@
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B24" s="6">
         <v>3</v>
@@ -4174,15 +4159,15 @@
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -4191,15 +4176,15 @@
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -4208,87 +4193,68 @@
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B27" s="6">
         <f>Enum!$A$4</f>
         <v>3</v>
       </c>
       <c r="C27" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>519</v>
+        <v>632</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B28" s="6">
         <f>Enum!$A$4</f>
         <v>3</v>
       </c>
       <c r="C28" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>609</v>
+        <v>518</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B29" s="6">
         <f>Enum!$A$4</f>
         <v>3</v>
       </c>
       <c r="C29" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>520</v>
+        <v>634</v>
       </c>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B30" s="6">
-        <f>Enum!$A$4</f>
-        <v>3</v>
-      </c>
-      <c r="C30" s="6">
-        <v>33</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4299,9 +4265,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C286220D-3D1D-4B04-8A8F-4F20B8135716}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -4592,13 +4560,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -4608,13 +4576,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4623,13 +4591,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4638,13 +4606,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4653,13 +4621,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4668,13 +4636,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4683,13 +4651,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4698,13 +4666,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4713,13 +4681,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4728,13 +4696,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>609</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4743,28 +4711,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3">
-        <f>Enum!$A$4</f>
-        <v>3</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5367,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>44</v>
@@ -5405,19 +5358,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5429,83 +5382,91 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213DAC5-F4D6-418B-BA6F-AEA28988AAAB}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.08203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.9140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10.4140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.08203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.9140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.75" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="3"/>
+    <col min="18" max="18" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>557</v>
+        <v>562</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -6059,7 +6020,7 @@
         <v>501</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>497</v>
@@ -6880,13 +6841,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X185"/>
+  <dimension ref="A1:X187"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6920,7 +6881,7 @@
       <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>464</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6938,19 +6899,19 @@
       <c r="H1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>465</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>466</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>467</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -7045,7 +7006,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A185" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A187" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -7492,10 +7453,10 @@
         <v>Project</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L13" s="3">
         <f>$A$123</f>
@@ -7509,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -7540,8 +7501,8 @@
         <v/>
       </c>
       <c r="L14" s="3">
-        <f>$A$153</f>
-        <v>152</v>
+        <f>$A$155</f>
+        <v>154</v>
       </c>
       <c r="M14" s="3" t="str">
         <f>IF(ISBLANK(L14),"",VLOOKUP(L14,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L14,Field!$A:$D,4,FALSE))</f>
@@ -12167,7 +12128,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
@@ -12204,7 +12165,7 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="V123" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -12233,7 +12194,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="V124" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -12334,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="V127" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -12377,7 +12338,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
@@ -12414,7 +12375,7 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="V129" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -12452,7 +12413,7 @@
         <v>1</v>
       </c>
       <c r="V130" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -12481,7 +12442,7 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="V131" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -12510,7 +12471,7 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="V132" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -12550,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="V133" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -12593,7 +12554,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
@@ -12630,7 +12591,7 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="V135" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -12667,7 +12628,7 @@
         <v>Layout.parent</v>
       </c>
       <c r="V136" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -12705,7 +12666,7 @@
         <v>1</v>
       </c>
       <c r="V137" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -12721,11 +12682,11 @@
         <f>VLOOKUP(B138,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>596</v>
+      <c r="D138" s="12" t="s">
+        <v>588</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -12734,7 +12695,7 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="V138" s="6" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -12750,7 +12711,7 @@
         <f>VLOOKUP(B139,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="12" t="s">
         <v>514</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -12785,21 +12746,21 @@
         <f>VLOOKUP(B140,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>294</v>
+      <c r="D140" s="12" t="s">
+        <v>617</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>141</v>
+        <v>618</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <f>Class!$A$6</f>
-        <v>5</v>
+        <f>Class!$A$4</f>
+        <v>3</v>
       </c>
       <c r="I140" s="6" t="str">
         <f>IF(ISBLANK(H140),"",VLOOKUP(H140,Class!$A:$C,3,FALSE))</f>
-        <v>Field</v>
+        <v>Class</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
@@ -12807,10 +12768,10 @@
         <v>1</v>
       </c>
       <c r="V140" s="6" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="X140" s="3" t="s">
-        <v>573</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -12826,21 +12787,20 @@
         <f>VLOOKUP(B141,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>572</v>
+      <c r="D141" s="12" t="s">
+        <v>619</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>141</v>
+        <v>618</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6">
-        <f>Class!$A$13</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I141" s="6" t="str">
         <f>IF(ISBLANK(H141),"",VLOOKUP(H141,Class!$A:$C,3,FALSE))</f>
-        <v>Message</v>
+        <v>Enum</v>
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -12848,7 +12808,10 @@
         <v>1</v>
       </c>
       <c r="V141" s="6" t="s">
-        <v>542</v>
+        <v>622</v>
+      </c>
+      <c r="X141" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -12864,21 +12827,21 @@
         <f>VLOOKUP(B142,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>589</v>
+      <c r="D142" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>590</v>
+        <v>141</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6">
-        <f>Class!$A$18</f>
-        <v>17</v>
+        <f>Class!$A$6</f>
+        <v>5</v>
       </c>
       <c r="I142" s="6" t="str">
         <f>IF(ISBLANK(H142),"",VLOOKUP(H142,Class!$A:$C,3,FALSE))</f>
-        <v>Layout</v>
+        <v>Field</v>
       </c>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
@@ -12886,7 +12849,10 @@
         <v>1</v>
       </c>
       <c r="V142" s="6" t="s">
-        <v>595</v>
+        <v>537</v>
+      </c>
+      <c r="X142" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -12902,29 +12868,32 @@
         <f>VLOOKUP(B143,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D143" s="14" t="s">
-        <v>591</v>
+      <c r="D143" s="12" t="s">
+        <v>620</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>592</v>
+        <v>141</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="H143" s="6">
+        <f>Class!$A$13</f>
+        <v>12</v>
+      </c>
+      <c r="I143" s="6" t="str">
+        <f>IF(ISBLANK(H143),"",VLOOKUP(H143,Class!$A:$C,3,FALSE))</f>
+        <v>Message</v>
+      </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="O143" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V143" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="W143" s="3" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -12940,29 +12909,29 @@
         <f>VLOOKUP(B144,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>552</v>
+      <c r="D144" s="12" t="s">
+        <v>581</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>41</v>
+        <v>582</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="H144" s="6">
+        <f>Class!$A$18</f>
+        <v>17</v>
+      </c>
+      <c r="I144" s="6" t="str">
+        <f>IF(ISBLANK(H144),"",VLOOKUP(H144,Class!$A:$C,3,FALSE))</f>
+        <v>Layout</v>
+      </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="O144" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V144" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="W144" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="X144" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -12978,29 +12947,29 @@
         <f>VLOOKUP(B145,Class!$A:$C,3,FALSE)</f>
         <v>Layout</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>507</v>
+      <c r="D145" s="12" t="s">
+        <v>583</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>141</v>
+        <v>584</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="6">
-        <f>Class!$A$15</f>
-        <v>14</v>
-      </c>
-      <c r="I145" s="6" t="str">
-        <f>IF(ISBLANK(H145),"",VLOOKUP(H145,Class!$A:$C,3,FALSE))</f>
-        <v>Style</v>
-      </c>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="O145" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V145" s="6" t="s">
-        <v>543</v>
+        <v>585</v>
+      </c>
+      <c r="W145" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="X145" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -13017,7 +12986,7 @@
         <v>Layout</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>406</v>
+        <v>548</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>41</v>
@@ -13032,7 +13001,13 @@
         <v>1</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>544</v>
+        <v>550</v>
+      </c>
+      <c r="W146" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="X146" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -13049,22 +13024,28 @@
         <v>Layout</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
+      <c r="H147" s="6">
+        <f>Class!$A$15</f>
+        <v>14</v>
+      </c>
+      <c r="I147" s="6" t="str">
+        <f>IF(ISBLANK(H147),"",VLOOKUP(H147,Class!$A:$C,3,FALSE))</f>
+        <v>Style</v>
+      </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="O147" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -13081,7 +13062,7 @@
         <v>Layout</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>41</v>
@@ -13096,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="V148" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -13113,7 +13094,7 @@
         <v>Layout</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>41</v>
@@ -13128,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="V149" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -13145,7 +13126,7 @@
         <v>Layout</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>41</v>
@@ -13160,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="V150" s="6" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -13177,7 +13158,7 @@
         <v>Layout</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>41</v>
@@ -13192,134 +13173,124 @@
         <v>1</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:24">
-      <c r="A152" s="5">
+      <c r="A152" s="6">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="6">
+        <f>Class!$A$18</f>
+        <v>17</v>
+      </c>
+      <c r="C152" s="6" t="str">
+        <f>VLOOKUP(B152,Class!$A:$C,3,FALSE)</f>
+        <v>Layout</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="O152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V152" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
+      <c r="A153" s="6">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="6">
+        <f>Class!$A$18</f>
+        <v>17</v>
+      </c>
+      <c r="C153" s="6" t="str">
+        <f>VLOOKUP(B153,Class!$A:$C,3,FALSE)</f>
+        <v>Layout</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="O153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V153" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
+      <c r="A154" s="5">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="5">
         <f>Class!$A$19</f>
         <v>18</v>
       </c>
-      <c r="C152" s="5" t="str">
-        <f>VLOOKUP(B152,Class!$A:$C,3,FALSE)</f>
-        <v>Locale</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5" t="str">
-        <f>IF(ISBLANK(H152),"",VLOOKUP(H152,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5" t="str">
-        <f>IF(ISBLANK(J152),"",VLOOKUP(J152,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5" t="str">
-        <f>IF(ISBLANK(L152),"",VLOOKUP(L152,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L152,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N152" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5"/>
-      <c r="V152" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-    </row>
-    <row r="153" spans="1:24">
-      <c r="A153" s="3">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="B153" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="C153" s="3" t="str">
-        <f>VLOOKUP(B153,Class!$A:$C,3,FALSE)</f>
-        <v>Locale</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H153" s="6">
-        <f>Class!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="I153" s="6" t="str">
-        <f>IF(ISBLANK(H153),"",VLOOKUP(H153,Class!$A:$C,3,FALSE))</f>
-        <v>Project</v>
-      </c>
-      <c r="K153" s="3" t="str">
-        <f>IF(ISBLANK(J153),"",VLOOKUP(J153,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M153" s="3" t="str">
-        <f>IF(ISBLANK(L153),"",VLOOKUP(L153,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L153,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V153" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24">
-      <c r="A154" s="3">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="B154" s="3">
-        <f>Class!$A$19</f>
-        <v>18</v>
-      </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" s="5" t="str">
         <f>VLOOKUP(B154,Class!$A:$C,3,FALSE)</f>
         <v>Locale</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E154" s="7" t="s">
+      <c r="D154" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I154" s="3" t="str">
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5" t="str">
         <f>IF(ISBLANK(H154),"",VLOOKUP(H154,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K154" s="3" t="str">
+      <c r="J154" s="5"/>
+      <c r="K154" s="5" t="str">
         <f>IF(ISBLANK(J154),"",VLOOKUP(J154,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M154" s="3" t="str">
+      <c r="L154" s="5"/>
+      <c r="M154" s="5" t="str">
         <f>IF(ISBLANK(L154),"",VLOOKUP(L154,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L154,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="V154" s="7" t="s">
-        <v>306</v>
-      </c>
+      <c r="N154" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="3">
@@ -13335,14 +13306,18 @@
         <v>Locale</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I155" s="3" t="str">
+        <v>282</v>
+      </c>
+      <c r="H155" s="6">
+        <f>Class!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="I155" s="6" t="str">
         <f>IF(ISBLANK(H155),"",VLOOKUP(H155,Class!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>Project</v>
       </c>
       <c r="K155" s="3" t="str">
         <f>IF(ISBLANK(J155),"",VLOOKUP(J155,Enum!$A:$C,3,FALSE))</f>
@@ -13353,164 +13328,134 @@
         <v/>
       </c>
       <c r="V155" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
+      <c r="A156" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <f>Class!$A$19</f>
+        <v>18</v>
+      </c>
+      <c r="C156" s="3" t="str">
+        <f>VLOOKUP(B156,Class!$A:$C,3,FALSE)</f>
+        <v>Locale</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I156" s="3" t="str">
+        <f>IF(ISBLANK(H156),"",VLOOKUP(H156,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K156" s="3" t="str">
+        <f>IF(ISBLANK(J156),"",VLOOKUP(J156,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M156" s="3" t="str">
+        <f>IF(ISBLANK(L156),"",VLOOKUP(L156,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L156,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V156" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
+      <c r="A157" s="3">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <f>Class!$A$19</f>
+        <v>18</v>
+      </c>
+      <c r="C157" s="3" t="str">
+        <f>VLOOKUP(B157,Class!$A:$C,3,FALSE)</f>
+        <v>Locale</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I157" s="3" t="str">
+        <f>IF(ISBLANK(H157),"",VLOOKUP(H157,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K157" s="3" t="str">
+        <f>IF(ISBLANK(J157),"",VLOOKUP(J157,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M157" s="3" t="str">
+        <f>IF(ISBLANK(L157),"",VLOOKUP(L157,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L157,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V157" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
-      <c r="A156" s="5">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="B156" s="5">
+    <row r="158" spans="1:24">
+      <c r="A158" s="5">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="5">
         <f>Class!$A$20</f>
         <v>19</v>
       </c>
-      <c r="C156" s="5" t="str">
-        <f>VLOOKUP(B156,Class!$A:$C,3,FALSE)</f>
-        <v>Otamesshi</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5" t="str">
-        <f>IF(ISBLANK(H156),"",VLOOKUP(H156,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5" t="str">
-        <f>IF(ISBLANK(J156),"",VLOOKUP(J156,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5" t="str">
-        <f>IF(ISBLANK(L156),"",VLOOKUP(L156,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L156,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N156" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5"/>
-      <c r="V156" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="W156" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X156" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24">
-      <c r="A157" s="6">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="B157" s="7">
-        <f>Class!$A$20</f>
-        <v>19</v>
-      </c>
-      <c r="C157" s="7" t="str">
-        <f>VLOOKUP(B157,Class!$A:$C,3,FALSE)</f>
-        <v>Otamesshi</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6">
-        <f>Class!$A$20</f>
-        <v>19</v>
-      </c>
-      <c r="I157" s="6" t="str">
-        <f>IF(ISBLANK(H157),"",VLOOKUP(H157,Class!$A:$C,3,FALSE))</f>
-        <v>Otamesshi</v>
-      </c>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6" t="str">
-        <f>IF(ISBLANK(J157),"",VLOOKUP(J157,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6" t="str">
-        <f>IF(ISBLANK(L157),"",VLOOKUP(L157,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L157,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
-      <c r="U157" s="6"/>
-      <c r="V157" s="6"/>
-      <c r="W157" s="6"/>
-    </row>
-    <row r="158" spans="1:24">
-      <c r="A158" s="6">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="B158" s="7">
-        <f>Class!$A$20</f>
-        <v>19</v>
-      </c>
-      <c r="C158" s="7" t="str">
+      <c r="C158" s="5" t="str">
         <f>VLOOKUP(B158,Class!$A:$C,3,FALSE)</f>
         <v>Otamesshi</v>
       </c>
-      <c r="D158" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6" t="str">
+      <c r="D158" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5" t="str">
         <f>IF(ISBLANK(H158),"",VLOOKUP(H158,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6" t="str">
+      <c r="J158" s="5"/>
+      <c r="K158" s="5" t="str">
         <f>IF(ISBLANK(J158),"",VLOOKUP(J158,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L158" s="6">
-        <f>A157</f>
-        <v>156</v>
-      </c>
-      <c r="M158" s="6" t="str">
+      <c r="L158" s="5"/>
+      <c r="M158" s="5" t="str">
         <f>IF(ISBLANK(L158),"",VLOOKUP(L158,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L158,Field!$A:$D,4,FALSE))</f>
-        <v>Otamesshi.owner</v>
-      </c>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
-      <c r="U158" s="6"/>
-      <c r="V158" s="6"/>
-      <c r="W158" s="6"/>
+        <v/>
+      </c>
+      <c r="N158" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W158" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X158" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="6">
@@ -13526,10 +13471,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -13552,9 +13497,7 @@
         <v/>
       </c>
       <c r="N159" s="6"/>
-      <c r="O159" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
@@ -13578,10 +13521,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -13601,7 +13544,7 @@
       </c>
       <c r="M160" s="6" t="str">
         <f>IF(ISBLANK(L160),"",VLOOKUP(L160,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L160,Field!$A:$D,4,FALSE))</f>
-        <v>Otamesshi.related</v>
+        <v>Otamesshi.owner</v>
       </c>
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
@@ -13628,57 +13571,64 @@
         <v>Otamesshi</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I161" s="3" t="str">
+        <v>153</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6">
+        <f>Class!$A$20</f>
+        <v>19</v>
+      </c>
+      <c r="I161" s="6" t="str">
         <f>IF(ISBLANK(H161),"",VLOOKUP(H161,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K161" s="3" t="str">
+        <v>Otamesshi</v>
+      </c>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6" t="str">
         <f>IF(ISBLANK(J161),"",VLOOKUP(J161,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M161" s="3" t="str">
+      <c r="L161" s="6"/>
+      <c r="M161" s="6" t="str">
         <f>IF(ISBLANK(L161),"",VLOOKUP(L161,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L161,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="V161" s="3" t="str">
-        <f>D161</f>
-        <v>booleanValue</v>
-      </c>
-      <c r="W161" s="3" t="str">
-        <f>D161&amp;"です"</f>
-        <v>booleanValueです</v>
-      </c>
-      <c r="X161" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6"/>
     </row>
     <row r="162" spans="1:24">
       <c r="A162" s="6">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="7">
         <f>Class!$A$20</f>
         <v>19</v>
       </c>
-      <c r="C162" s="6" t="str">
+      <c r="C162" s="7" t="str">
         <f>VLOOKUP(B162,Class!$A:$C,3,FALSE)</f>
         <v>Otamesshi</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F162" s="6">
-        <v>8</v>
-      </c>
+      <c r="D162" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6" t="str">
@@ -13690,24 +13640,24 @@
         <f>IF(ISBLANK(J162),"",VLOOKUP(J162,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="L162" s="6"/>
+      <c r="L162" s="6">
+        <f>A161</f>
+        <v>160</v>
+      </c>
       <c r="M162" s="6" t="str">
         <f>IF(ISBLANK(L162),"",VLOOKUP(L162,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L162,Field!$A:$D,4,FALSE))</f>
-        <v/>
+        <v>Otamesshi.related</v>
       </c>
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
-      <c r="P162" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
       <c r="S162" s="6"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
-      <c r="X162" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="V162" s="6"/>
+      <c r="W162" s="6"/>
     </row>
     <row r="163" spans="1:24">
       <c r="A163" s="6">
@@ -13723,13 +13673,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F163" s="3">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I163" s="3" t="str">
         <f>IF(ISBLANK(H163),"",VLOOKUP(H163,Class!$A:$C,3,FALSE))</f>
@@ -13743,12 +13690,13 @@
         <f>IF(ISBLANK(L163),"",VLOOKUP(L163,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L163,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="Q163" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="V163" s="3" t="str">
-        <f t="shared" ref="V163:V173" si="1">D163</f>
-        <v>shortValue</v>
+        <f>D163</f>
+        <v>booleanValue</v>
+      </c>
+      <c r="W163" s="3" t="str">
+        <f>D163&amp;"です"</f>
+        <v>booleanValueです</v>
       </c>
       <c r="X163" s="3" t="s">
         <v>69</v>
@@ -13759,46 +13707,49 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <f>Class!$A$20</f>
         <v>19</v>
       </c>
-      <c r="C164" s="7" t="str">
+      <c r="C164" s="6" t="str">
         <f>VLOOKUP(B164,Class!$A:$C,3,FALSE)</f>
         <v>Otamesshi</v>
       </c>
-      <c r="D164" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E164" s="7" t="s">
+      <c r="D164" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F164" s="3">
-        <v>32</v>
-      </c>
-      <c r="I164" s="3" t="str">
+      <c r="F164" s="6">
+        <v>8</v>
+      </c>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6" t="str">
         <f>IF(ISBLANK(H164),"",VLOOKUP(H164,Class!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="K164" s="3" t="str">
+      <c r="J164" s="6"/>
+      <c r="K164" s="6" t="str">
         <f>IF(ISBLANK(J164),"",VLOOKUP(J164,Enum!$A:$C,3,FALSE))</f>
         <v/>
       </c>
-      <c r="M164" s="3" t="str">
+      <c r="L164" s="6"/>
+      <c r="M164" s="6" t="str">
         <f>IF(ISBLANK(L164),"",VLOOKUP(L164,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L164,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="R164" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V164" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>intValue</v>
-      </c>
-      <c r="W164" s="3" t="str">
-        <f t="shared" ref="W164:W173" si="2">D164&amp;"です"</f>
-        <v>intValueです</v>
-      </c>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
       <c r="X164" s="3" t="s">
         <v>69</v>
       </c>
@@ -13817,13 +13768,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F165" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I165" s="3" t="str">
         <f>IF(ISBLANK(H165),"",VLOOKUP(H165,Class!$A:$C,3,FALSE))</f>
@@ -13837,21 +13788,12 @@
         <f>IF(ISBLANK(L165),"",VLOOKUP(L165,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L165,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="O165" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S165" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T165" s="6"/>
-      <c r="U165" s="6"/>
+      <c r="Q165" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="V165" s="3" t="str">
-        <f t="shared" ref="V165" si="3">D165</f>
-        <v>nullableValue</v>
-      </c>
-      <c r="W165" s="3" t="str">
-        <f t="shared" ref="W165" si="4">D165&amp;"です"</f>
-        <v>nullableValueです</v>
+        <f t="shared" ref="V165:V175" si="1">D165</f>
+        <v>shortValue</v>
       </c>
       <c r="X165" s="3" t="s">
         <v>69</v>
@@ -13871,13 +13813,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F166" s="3">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I166" s="3" t="str">
         <f>IF(ISBLANK(H166),"",VLOOKUP(H166,Class!$A:$C,3,FALSE))</f>
@@ -13891,27 +13833,16 @@
         <f>IF(ISBLANK(L166),"",VLOOKUP(L166,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L166,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="P166" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q166" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="R166" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="S166" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T166" s="6"/>
-      <c r="U166" s="6"/>
       <c r="V166" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>longValue</v>
+        <v>intValue</v>
       </c>
       <c r="W166" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>longValueです</v>
+        <f t="shared" ref="W166:W175" si="2">D166&amp;"です"</f>
+        <v>intValueです</v>
       </c>
       <c r="X166" s="3" t="s">
         <v>69</v>
@@ -13931,10 +13862,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F167" s="3">
         <v>32</v>
@@ -13951,19 +13882,21 @@
         <f>IF(ISBLANK(L167),"",VLOOKUP(L167,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L167,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="P167" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q167" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O167" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S167" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
       <c r="V167" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>floatValue</v>
+        <f t="shared" ref="V167" si="3">D167</f>
+        <v>nullableValue</v>
       </c>
       <c r="W167" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>floatValueです</v>
+        <f t="shared" ref="W167" si="4">D167&amp;"です"</f>
+        <v>nullableValueです</v>
       </c>
       <c r="X167" s="3" t="s">
         <v>69</v>
@@ -13983,10 +13916,10 @@
         <v>Otamesshi</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F168" s="3">
         <v>64</v>
@@ -14002,6 +13935,12 @@
       <c r="M168" s="3" t="str">
         <f>IF(ISBLANK(L168),"",VLOOKUP(L168,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L168,Field!$A:$D,4,FALSE))</f>
         <v/>
+      </c>
+      <c r="P168" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="R168" s="6" t="b">
         <v>1</v>
@@ -14013,7 +13952,11 @@
       <c r="U168" s="6"/>
       <c r="V168" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>doubleValue</v>
+        <v>longValue</v>
+      </c>
+      <c r="W168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>longValueです</v>
       </c>
       <c r="X168" s="3" t="s">
         <v>69</v>
@@ -14033,16 +13976,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F169" s="3">
-        <v>10</v>
-      </c>
-      <c r="G169" s="3">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I169" s="3" t="str">
         <f>IF(ISBLANK(H169),"",VLOOKUP(H169,Class!$A:$C,3,FALSE))</f>
@@ -14062,17 +14002,13 @@
       <c r="Q169" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="R169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T169" s="6"/>
-      <c r="U169" s="6"/>
+      <c r="V169" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>floatValue</v>
+      </c>
       <c r="W169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>numericValueです</v>
+        <v>floatValueです</v>
       </c>
       <c r="X169" s="3" t="s">
         <v>69</v>
@@ -14092,10 +14028,13 @@
         <v>Otamesshi</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="F170" s="3">
+        <v>64</v>
       </c>
       <c r="I170" s="3" t="str">
         <f>IF(ISBLANK(H170),"",VLOOKUP(H170,Class!$A:$C,3,FALSE))</f>
@@ -14119,11 +14058,7 @@
       <c r="U170" s="6"/>
       <c r="V170" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>dateValue</v>
-      </c>
-      <c r="W170" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>dateValueです</v>
+        <v>doubleValue</v>
       </c>
       <c r="X170" s="3" t="s">
         <v>69</v>
@@ -14143,10 +14078,16 @@
         <v>Otamesshi</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="F171" s="3">
+        <v>10</v>
+      </c>
+      <c r="G171" s="3">
+        <v>3</v>
       </c>
       <c r="I171" s="3" t="str">
         <f>IF(ISBLANK(H171),"",VLOOKUP(H171,Class!$A:$C,3,FALSE))</f>
@@ -14160,129 +14101,137 @@
         <f>IF(ISBLANK(L171),"",VLOOKUP(L171,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L171,Field!$A:$D,4,FALSE))</f>
         <v/>
       </c>
-      <c r="V171" s="3" t="str">
+      <c r="P171" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R171" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S171" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="W171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>numericValueです</v>
+      </c>
+      <c r="X171" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
+      <c r="A172" s="6">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="7">
+        <f>Class!$A$20</f>
+        <v>19</v>
+      </c>
+      <c r="C172" s="7" t="str">
+        <f>VLOOKUP(B172,Class!$A:$C,3,FALSE)</f>
+        <v>Otamesshi</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I172" s="3" t="str">
+        <f>IF(ISBLANK(H172),"",VLOOKUP(H172,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K172" s="3" t="str">
+        <f>IF(ISBLANK(J172),"",VLOOKUP(J172,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M172" s="3" t="str">
+        <f>IF(ISBLANK(L172),"",VLOOKUP(L172,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L172,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="R172" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S172" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>dateValue</v>
+      </c>
+      <c r="W172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dateValueです</v>
+      </c>
+      <c r="X172" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
+      <c r="A173" s="6">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="7">
+        <f>Class!$A$20</f>
+        <v>19</v>
+      </c>
+      <c r="C173" s="7" t="str">
+        <f>VLOOKUP(B173,Class!$A:$C,3,FALSE)</f>
+        <v>Otamesshi</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I173" s="3" t="str">
+        <f>IF(ISBLANK(H173),"",VLOOKUP(H173,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K173" s="3" t="str">
+        <f>IF(ISBLANK(J173),"",VLOOKUP(J173,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M173" s="3" t="str">
+        <f>IF(ISBLANK(L173),"",VLOOKUP(L173,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L173,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V173" s="3" t="str">
         <f t="shared" si="1"/>
         <v>strValue</v>
       </c>
-      <c r="W171" s="3" t="str">
+      <c r="W173" s="3" t="str">
         <f t="shared" si="2"/>
         <v>strValueです</v>
       </c>
-      <c r="X171" s="3" t="s">
+      <c r="X173" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="172" spans="1:24">
-      <c r="A172" s="5">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="B172" s="5">
+    <row r="174" spans="1:24">
+      <c r="A174" s="5">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="5">
         <f>Class!$A$21</f>
         <v>20</v>
       </c>
-      <c r="C172" s="5" t="str">
-        <f>VLOOKUP(B172,Class!$A:$C,3,FALSE)</f>
-        <v>Namihei</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5" t="str">
-        <f>IF(ISBLANK(H172),"",VLOOKUP(H172,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5" t="str">
-        <f>IF(ISBLANK(J172),"",VLOOKUP(J172,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5" t="str">
-        <f>IF(ISBLANK(L172),"",VLOOKUP(L172,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L172,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N172" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5"/>
-      <c r="V172" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>namiheiId</v>
-      </c>
-      <c r="W172" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>namiheiIdです</v>
-      </c>
-      <c r="X172" s="5"/>
-    </row>
-    <row r="173" spans="1:24">
-      <c r="A173" s="6">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="B173" s="6">
-        <f>Class!$A$21</f>
-        <v>20</v>
-      </c>
-      <c r="C173" s="6" t="str">
-        <f>VLOOKUP(B173,Class!$A:$C,3,FALSE)</f>
-        <v>Namihei</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I173" s="3" t="str">
-        <f>IF(ISBLANK(H173),"",VLOOKUP(H173,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K173" s="3" t="str">
-        <f>IF(ISBLANK(J173),"",VLOOKUP(J173,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M173" s="3" t="str">
-        <f>IF(ISBLANK(L173),"",VLOOKUP(L173,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L173,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V173" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>name</v>
-      </c>
-      <c r="W173" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>nameです</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24">
-      <c r="A174" s="5">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="B174" s="5">
-        <f>Class!$A$22</f>
-        <v>21</v>
-      </c>
       <c r="C174" s="5" t="str">
         <f>VLOOKUP(B174,Class!$A:$C,3,FALSE)</f>
-        <v>Sazae</v>
+        <v>Namihei</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>193</v>
@@ -14314,8 +14263,14 @@
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
-      <c r="V174" s="5"/>
-      <c r="W174" s="5"/>
+      <c r="V174" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>namiheiId</v>
+      </c>
+      <c r="W174" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>namiheiIdです</v>
+      </c>
       <c r="X174" s="5"/>
     </row>
     <row r="175" spans="1:24">
@@ -14324,468 +14279,558 @@
         <v>174</v>
       </c>
       <c r="B175" s="6">
+        <f>Class!$A$21</f>
+        <v>20</v>
+      </c>
+      <c r="C175" s="6" t="str">
+        <f>VLOOKUP(B175,Class!$A:$C,3,FALSE)</f>
+        <v>Namihei</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I175" s="3" t="str">
+        <f>IF(ISBLANK(H175),"",VLOOKUP(H175,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K175" s="3" t="str">
+        <f>IF(ISBLANK(J175),"",VLOOKUP(J175,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M175" s="3" t="str">
+        <f>IF(ISBLANK(L175),"",VLOOKUP(L175,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L175,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V175" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>name</v>
+      </c>
+      <c r="W175" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>nameです</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
+      <c r="A176" s="5">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="5">
         <f>Class!$A$22</f>
         <v>21</v>
       </c>
-      <c r="C175" s="6" t="str">
-        <f>VLOOKUP(B175,Class!$A:$C,3,FALSE)</f>
+      <c r="C176" s="5" t="str">
+        <f>VLOOKUP(B176,Class!$A:$C,3,FALSE)</f>
         <v>Sazae</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D176" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5" t="str">
+        <f>IF(ISBLANK(H176),"",VLOOKUP(H176,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5" t="str">
+        <f>IF(ISBLANK(J176),"",VLOOKUP(J176,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5" t="str">
+        <f>IF(ISBLANK(L176),"",VLOOKUP(L176,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L176,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N176" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+    </row>
+    <row r="177" spans="1:24">
+      <c r="A177" s="6">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="6">
+        <f>Class!$A$22</f>
+        <v>21</v>
+      </c>
+      <c r="C177" s="6" t="str">
+        <f>VLOOKUP(B177,Class!$A:$C,3,FALSE)</f>
+        <v>Sazae</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E177" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H175" s="3">
+      <c r="H177" s="3">
         <f>Class!$A$21</f>
         <v>20</v>
       </c>
-      <c r="I175" s="3" t="str">
-        <f>IF(ISBLANK(H175),"",VLOOKUP(H175,Class!$A:$C,3,FALSE))</f>
+      <c r="I177" s="3" t="str">
+        <f>IF(ISBLANK(H177),"",VLOOKUP(H177,Class!$A:$C,3,FALSE))</f>
         <v>Namihei</v>
       </c>
-      <c r="K175" s="3" t="str">
-        <f>IF(ISBLANK(J175),"",VLOOKUP(J175,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M175" s="3" t="str">
-        <f>IF(ISBLANK(L175),"",VLOOKUP(L175,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L175,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N175" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24">
-      <c r="A176" s="6">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="B176" s="6">
+      <c r="K177" s="3" t="str">
+        <f>IF(ISBLANK(J177),"",VLOOKUP(J177,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M177" s="3" t="str">
+        <f>IF(ISBLANK(L177),"",VLOOKUP(L177,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L177,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N177" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="A178" s="6">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="6">
         <f>Class!$A$22</f>
         <v>21</v>
       </c>
-      <c r="C176" s="6" t="str">
-        <f>VLOOKUP(B176,Class!$A:$C,3,FALSE)</f>
+      <c r="C178" s="6" t="str">
+        <f>VLOOKUP(B178,Class!$A:$C,3,FALSE)</f>
         <v>Sazae</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E178" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I176" s="3" t="str">
-        <f>IF(ISBLANK(H176),"",VLOOKUP(H176,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K176" s="3" t="str">
-        <f>IF(ISBLANK(J176),"",VLOOKUP(J176,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M176" s="3" t="str">
-        <f>IF(ISBLANK(L176),"",VLOOKUP(L176,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L176,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V176" s="7" t="str">
-        <f t="shared" ref="V176" si="5">D176</f>
+      <c r="I178" s="3" t="str">
+        <f>IF(ISBLANK(H178),"",VLOOKUP(H178,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K178" s="3" t="str">
+        <f>IF(ISBLANK(J178),"",VLOOKUP(J178,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M178" s="3" t="str">
+        <f>IF(ISBLANK(L178),"",VLOOKUP(L178,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L178,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V178" s="7" t="str">
+        <f t="shared" ref="V178" si="5">D178</f>
         <v>name</v>
       </c>
-      <c r="W176" s="7" t="str">
-        <f t="shared" ref="W176" si="6">D176&amp;"です"</f>
+      <c r="W178" s="7" t="str">
+        <f t="shared" ref="W178" si="6">D178&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
-      <c r="A177" s="5">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="B177" s="5">
+    <row r="179" spans="1:24">
+      <c r="A179" s="5">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="5">
         <f>Class!$A$23</f>
         <v>22</v>
       </c>
-      <c r="C177" s="5" t="str">
-        <f>VLOOKUP(B177,Class!$A:$C,3,FALSE)</f>
+      <c r="C179" s="5" t="str">
+        <f>VLOOKUP(B179,Class!$A:$C,3,FALSE)</f>
         <v>Katsuo</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D179" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E179" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5" t="str">
-        <f>IF(ISBLANK(H177),"",VLOOKUP(H177,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5" t="str">
-        <f>IF(ISBLANK(J177),"",VLOOKUP(J177,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5" t="str">
-        <f>IF(ISBLANK(L177),"",VLOOKUP(L177,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L177,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N177" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5"/>
-      <c r="V177" s="5"/>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-    </row>
-    <row r="178" spans="1:24">
-      <c r="A178" s="6">
-        <f t="shared" ref="A178:A184" si="7">ROW()-1</f>
-        <v>177</v>
-      </c>
-      <c r="B178" s="6">
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5" t="str">
+        <f>IF(ISBLANK(H179),"",VLOOKUP(H179,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5" t="str">
+        <f>IF(ISBLANK(J179),"",VLOOKUP(J179,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5" t="str">
+        <f>IF(ISBLANK(L179),"",VLOOKUP(L179,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L179,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N179" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
+      <c r="W179" s="5"/>
+      <c r="X179" s="5"/>
+    </row>
+    <row r="180" spans="1:24">
+      <c r="A180" s="6">
+        <f t="shared" ref="A180:A186" si="7">ROW()-1</f>
+        <v>179</v>
+      </c>
+      <c r="B180" s="6">
         <f>Class!$A$23</f>
         <v>22</v>
       </c>
-      <c r="C178" s="6" t="str">
-        <f>VLOOKUP(B178,Class!$A:$C,3,FALSE)</f>
+      <c r="C180" s="6" t="str">
+        <f>VLOOKUP(B180,Class!$A:$C,3,FALSE)</f>
         <v>Katsuo</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E180" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H180" s="3">
         <f>Class!$A$21</f>
         <v>20</v>
       </c>
-      <c r="I178" s="3" t="str">
-        <f>IF(ISBLANK(H178),"",VLOOKUP(H178,Class!$A:$C,3,FALSE))</f>
+      <c r="I180" s="3" t="str">
+        <f>IF(ISBLANK(H180),"",VLOOKUP(H180,Class!$A:$C,3,FALSE))</f>
         <v>Namihei</v>
       </c>
-      <c r="K178" s="3" t="str">
-        <f>IF(ISBLANK(J178),"",VLOOKUP(J178,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M178" s="3" t="str">
-        <f>IF(ISBLANK(L178),"",VLOOKUP(L178,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L178,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N178" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:24">
-      <c r="A179" s="6">
-        <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="B179" s="6">
+      <c r="K180" s="3" t="str">
+        <f>IF(ISBLANK(J180),"",VLOOKUP(J180,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M180" s="3" t="str">
+        <f>IF(ISBLANK(L180),"",VLOOKUP(L180,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L180,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N180" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="6">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="6">
         <f>Class!$A$23</f>
         <v>22</v>
       </c>
-      <c r="C179" s="6" t="str">
-        <f>VLOOKUP(B179,Class!$A:$C,3,FALSE)</f>
+      <c r="C181" s="6" t="str">
+        <f>VLOOKUP(B181,Class!$A:$C,3,FALSE)</f>
         <v>Katsuo</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E181" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I179" s="3" t="str">
-        <f>IF(ISBLANK(H179),"",VLOOKUP(H179,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K179" s="3" t="str">
-        <f>IF(ISBLANK(J179),"",VLOOKUP(J179,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M179" s="3" t="str">
-        <f>IF(ISBLANK(L179),"",VLOOKUP(L179,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L179,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V179" s="7" t="str">
-        <f t="shared" ref="V179" si="8">D179</f>
+      <c r="I181" s="3" t="str">
+        <f>IF(ISBLANK(H181),"",VLOOKUP(H181,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K181" s="3" t="str">
+        <f>IF(ISBLANK(J181),"",VLOOKUP(J181,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M181" s="3" t="str">
+        <f>IF(ISBLANK(L181),"",VLOOKUP(L181,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L181,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V181" s="7" t="str">
+        <f t="shared" ref="V181" si="8">D181</f>
         <v>name</v>
       </c>
-      <c r="W179" s="7" t="str">
-        <f t="shared" ref="W179" si="9">D179&amp;"です"</f>
+      <c r="W181" s="7" t="str">
+        <f t="shared" ref="W181" si="9">D181&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
-      <c r="A180" s="5">
-        <f t="shared" si="0"/>
-        <v>179</v>
-      </c>
-      <c r="B180" s="5">
+    <row r="182" spans="1:24">
+      <c r="A182" s="5">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
         <f>Class!$A$24</f>
         <v>23</v>
       </c>
-      <c r="C180" s="5" t="str">
-        <f>VLOOKUP(B180,Class!$A:$C,3,FALSE)</f>
+      <c r="C182" s="5" t="str">
+        <f>VLOOKUP(B182,Class!$A:$C,3,FALSE)</f>
         <v>Wakame</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D182" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E182" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5" t="str">
-        <f>IF(ISBLANK(H180),"",VLOOKUP(H180,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5" t="str">
-        <f>IF(ISBLANK(J180),"",VLOOKUP(J180,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5" t="str">
-        <f>IF(ISBLANK(L180),"",VLOOKUP(L180,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L180,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O180" s="5"/>
-      <c r="P180" s="5"/>
-      <c r="Q180" s="5"/>
-      <c r="R180" s="5"/>
-      <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
-      <c r="U180" s="5"/>
-      <c r="V180" s="5"/>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-    </row>
-    <row r="181" spans="1:24">
-      <c r="A181" s="6">
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5" t="str">
+        <f>IF(ISBLANK(H182),"",VLOOKUP(H182,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5" t="str">
+        <f>IF(ISBLANK(J182),"",VLOOKUP(J182,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5" t="str">
+        <f>IF(ISBLANK(L182),"",VLOOKUP(L182,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L182,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N182" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="5"/>
+      <c r="V182" s="5"/>
+      <c r="W182" s="5"/>
+      <c r="X182" s="5"/>
+    </row>
+    <row r="183" spans="1:24">
+      <c r="A183" s="6">
         <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="B181" s="6">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6">
         <f>Class!$A$24</f>
         <v>23</v>
       </c>
-      <c r="C181" s="6" t="str">
-        <f>VLOOKUP(B181,Class!$A:$C,3,FALSE)</f>
+      <c r="C183" s="6" t="str">
+        <f>VLOOKUP(B183,Class!$A:$C,3,FALSE)</f>
         <v>Wakame</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E183" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H181" s="3">
+      <c r="H183" s="3">
         <f>Class!$A$21</f>
         <v>20</v>
       </c>
-      <c r="I181" s="3" t="str">
-        <f>IF(ISBLANK(H181),"",VLOOKUP(H181,Class!$A:$C,3,FALSE))</f>
+      <c r="I183" s="3" t="str">
+        <f>IF(ISBLANK(H183),"",VLOOKUP(H183,Class!$A:$C,3,FALSE))</f>
         <v>Namihei</v>
       </c>
-      <c r="K181" s="3" t="str">
-        <f>IF(ISBLANK(J181),"",VLOOKUP(J181,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M181" s="3" t="str">
-        <f>IF(ISBLANK(L181),"",VLOOKUP(L181,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L181,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N181" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:24">
-      <c r="A182" s="6">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="B182" s="6">
+      <c r="K183" s="3" t="str">
+        <f>IF(ISBLANK(J183),"",VLOOKUP(J183,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M183" s="3" t="str">
+        <f>IF(ISBLANK(L183),"",VLOOKUP(L183,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L183,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N183" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
+      <c r="A184" s="6">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="6">
         <f>Class!$A$24</f>
         <v>23</v>
       </c>
-      <c r="C182" s="6" t="str">
-        <f>VLOOKUP(B182,Class!$A:$C,3,FALSE)</f>
+      <c r="C184" s="6" t="str">
+        <f>VLOOKUP(B184,Class!$A:$C,3,FALSE)</f>
         <v>Wakame</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D184" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E184" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I182" s="3" t="str">
-        <f>IF(ISBLANK(H182),"",VLOOKUP(H182,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K182" s="3" t="str">
-        <f>IF(ISBLANK(J182),"",VLOOKUP(J182,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M182" s="3" t="str">
-        <f>IF(ISBLANK(L182),"",VLOOKUP(L182,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L182,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V182" s="7" t="str">
-        <f t="shared" ref="V182" si="10">D182</f>
+      <c r="I184" s="3" t="str">
+        <f>IF(ISBLANK(H184),"",VLOOKUP(H184,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K184" s="3" t="str">
+        <f>IF(ISBLANK(J184),"",VLOOKUP(J184,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M184" s="3" t="str">
+        <f>IF(ISBLANK(L184),"",VLOOKUP(L184,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L184,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V184" s="7" t="str">
+        <f t="shared" ref="V184" si="10">D184</f>
         <v>name</v>
       </c>
-      <c r="W182" s="7" t="str">
-        <f t="shared" ref="W182" si="11">D182&amp;"です"</f>
+      <c r="W184" s="7" t="str">
+        <f t="shared" ref="W184" si="11">D184&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
-      <c r="A183" s="5">
-        <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="B183" s="5">
+    <row r="185" spans="1:24">
+      <c r="A185" s="5">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
         <f>Class!$A$25</f>
         <v>24</v>
       </c>
-      <c r="C183" s="5" t="str">
-        <f>VLOOKUP(B183,Class!$A:$C,3,FALSE)</f>
+      <c r="C185" s="5" t="str">
+        <f>VLOOKUP(B185,Class!$A:$C,3,FALSE)</f>
         <v>Tara</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D185" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E185" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5" t="str">
-        <f>IF(ISBLANK(H183),"",VLOOKUP(H183,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="J183" s="5"/>
-      <c r="K183" s="5" t="str">
-        <f>IF(ISBLANK(J183),"",VLOOKUP(J183,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L183" s="5"/>
-      <c r="M183" s="5" t="str">
-        <f>IF(ISBLANK(L183),"",VLOOKUP(L183,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L183,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N183" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5"/>
-      <c r="V183" s="5"/>
-      <c r="W183" s="5"/>
-      <c r="X183" s="5"/>
-    </row>
-    <row r="184" spans="1:24">
-      <c r="A184" s="6">
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5" t="str">
+        <f>IF(ISBLANK(H185),"",VLOOKUP(H185,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5" t="str">
+        <f>IF(ISBLANK(J185),"",VLOOKUP(J185,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5" t="str">
+        <f>IF(ISBLANK(L185),"",VLOOKUP(L185,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L185,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N185" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5"/>
+      <c r="V185" s="5"/>
+      <c r="W185" s="5"/>
+      <c r="X185" s="5"/>
+    </row>
+    <row r="186" spans="1:24">
+      <c r="A186" s="6">
         <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-      <c r="B184" s="6">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6">
         <f>Class!$A$25</f>
         <v>24</v>
       </c>
-      <c r="C184" s="6" t="str">
-        <f>VLOOKUP(B184,Class!$A:$C,3,FALSE)</f>
+      <c r="C186" s="6" t="str">
+        <f>VLOOKUP(B186,Class!$A:$C,3,FALSE)</f>
         <v>Tara</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E186" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H184" s="3">
+      <c r="H186" s="3">
         <f>Class!$A$22</f>
         <v>21</v>
       </c>
-      <c r="I184" s="3" t="str">
-        <f>IF(ISBLANK(H184),"",VLOOKUP(H184,Class!$A:$C,3,FALSE))</f>
+      <c r="I186" s="3" t="str">
+        <f>IF(ISBLANK(H186),"",VLOOKUP(H186,Class!$A:$C,3,FALSE))</f>
         <v>Sazae</v>
       </c>
-      <c r="K184" s="3" t="str">
-        <f>IF(ISBLANK(J184),"",VLOOKUP(J184,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M184" s="3" t="str">
-        <f>IF(ISBLANK(L184),"",VLOOKUP(L184,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L184,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="N184" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:24">
-      <c r="A185" s="6">
-        <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="B185" s="6">
+      <c r="K186" s="3" t="str">
+        <f>IF(ISBLANK(J186),"",VLOOKUP(J186,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M186" s="3" t="str">
+        <f>IF(ISBLANK(L186),"",VLOOKUP(L186,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L186,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="N186" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
+      <c r="A187" s="6">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="6">
         <f>Class!$A$25</f>
         <v>24</v>
       </c>
-      <c r="C185" s="6" t="str">
-        <f>VLOOKUP(B185,Class!$A:$C,3,FALSE)</f>
+      <c r="C187" s="6" t="str">
+        <f>VLOOKUP(B187,Class!$A:$C,3,FALSE)</f>
         <v>Tara</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D187" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E187" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I185" s="3" t="str">
-        <f>IF(ISBLANK(H185),"",VLOOKUP(H185,Class!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="K185" s="3" t="str">
-        <f>IF(ISBLANK(J185),"",VLOOKUP(J185,Enum!$A:$C,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="M185" s="3" t="str">
-        <f>IF(ISBLANK(L185),"",VLOOKUP(L185,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L185,Field!$A:$D,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="V185" s="7" t="str">
-        <f t="shared" ref="V185" si="12">D185</f>
+      <c r="I187" s="3" t="str">
+        <f>IF(ISBLANK(H187),"",VLOOKUP(H187,Class!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="K187" s="3" t="str">
+        <f>IF(ISBLANK(J187),"",VLOOKUP(J187,Enum!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="M187" s="3" t="str">
+        <f>IF(ISBLANK(L187),"",VLOOKUP(L187,Field!$A:$D,3,FALSE)&amp;"."&amp;VLOOKUP(L187,Field!$A:$D,4,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V187" s="7" t="str">
+        <f t="shared" ref="V187" si="12">D187</f>
         <v>name</v>
       </c>
-      <c r="W185" s="7" t="str">
-        <f t="shared" ref="W185" si="13">D185&amp;"です"</f>
+      <c r="W187" s="7" t="str">
+        <f t="shared" ref="W187" si="13">D187&amp;"です"</f>
         <v>nameです</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X185" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X187" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14794,9 +14839,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FEF7AC-3B66-466B-AD39-226C50B48147}">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -14831,21 +14878,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A185" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A187" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -14859,7 +14906,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -14873,11 +14920,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14886,7 +14933,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
@@ -14899,11 +14946,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14912,7 +14959,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
@@ -14925,7 +14972,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
@@ -14938,7 +14985,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
@@ -14951,7 +14998,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
@@ -14964,7 +15011,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
@@ -14977,11 +15024,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14990,7 +15037,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
@@ -15003,7 +15050,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
@@ -15016,7 +15063,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="8" t="s">
@@ -15030,7 +15077,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
@@ -15043,11 +15090,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -15056,7 +15103,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
@@ -15069,11 +15116,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -15083,7 +15130,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
@@ -15097,7 +15144,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
@@ -15111,7 +15158,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
@@ -15127,7 +15174,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
@@ -15143,11 +15190,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -15156,7 +15203,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
@@ -15169,11 +15216,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -15182,7 +15229,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>108</v>
@@ -15194,7 +15241,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>266</v>
@@ -15206,7 +15253,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>304</v>
@@ -15218,7 +15265,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="8" t="s">
@@ -15232,7 +15279,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
@@ -15245,11 +15292,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15258,7 +15305,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7" t="s">
@@ -15271,11 +15318,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="8" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E35" s="8"/>
     </row>
@@ -15285,7 +15332,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7" t="s">
@@ -15299,7 +15346,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>111</v>
@@ -15311,7 +15358,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>112</v>
@@ -15323,7 +15370,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>114</v>
@@ -15335,7 +15382,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>113</v>
@@ -15347,7 +15394,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>125</v>
@@ -15359,7 +15406,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>126</v>
@@ -15371,7 +15418,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>127</v>
@@ -15383,10 +15430,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -15395,7 +15442,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>133</v>
@@ -15407,7 +15454,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>262</v>
@@ -15422,7 +15469,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>263</v>
@@ -15437,7 +15484,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>264</v>
@@ -15452,7 +15499,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>265</v>
@@ -15467,7 +15514,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>489</v>
@@ -15482,7 +15529,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>269</v>
@@ -15497,10 +15544,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -15509,7 +15556,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>101</v>
@@ -15521,10 +15568,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -15533,7 +15580,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
@@ -15546,7 +15593,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="8" t="s">
@@ -15560,7 +15607,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="7" t="s">
@@ -15573,7 +15620,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="7" t="s">
@@ -15586,11 +15633,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -15599,7 +15646,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="7" t="s">
@@ -15612,11 +15659,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="8" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E61" s="8"/>
     </row>
@@ -15626,7 +15673,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7" t="s">
@@ -15640,7 +15687,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>171</v>
@@ -15652,7 +15699,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>177</v>
@@ -15667,7 +15714,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>179</v>
@@ -15682,10 +15729,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -15694,7 +15741,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>101</v>
@@ -15706,10 +15753,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -15718,7 +15765,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
@@ -15732,7 +15779,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
@@ -15746,7 +15793,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>117</v>
@@ -15758,7 +15805,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>151</v>
@@ -15773,10 +15820,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -15785,7 +15832,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>101</v>
@@ -15797,10 +15844,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -15809,7 +15856,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="7" t="s">
@@ -15823,7 +15870,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="7" t="s">
@@ -15836,7 +15883,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="8" t="s">
@@ -15850,7 +15897,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="7" t="s">
@@ -15863,11 +15910,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -15876,7 +15923,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="7" t="s">
@@ -15889,7 +15936,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="8" t="s">
@@ -15903,7 +15950,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6" t="s">
@@ -15917,7 +15964,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>120</v>
@@ -15929,10 +15976,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -15941,7 +15988,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>101</v>
@@ -15953,10 +16000,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -15965,7 +16012,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7" t="s">
@@ -15978,7 +16025,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="8" t="s">
@@ -15992,7 +16039,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="7" t="s">
@@ -16005,11 +16052,11 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -16018,7 +16065,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="7" t="s">
@@ -16031,11 +16078,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="8" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E93" s="5"/>
     </row>
@@ -16045,7 +16092,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="7" t="s">
@@ -16059,7 +16106,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="7" t="s">
@@ -16073,10 +16120,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -16085,7 +16132,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="7" t="s">
@@ -16098,7 +16145,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="8" t="s">
@@ -16112,7 +16159,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="7" t="s">
@@ -16125,11 +16172,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -16138,11 +16185,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="8" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E101" s="5"/>
     </row>
@@ -16152,7 +16199,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7" t="s">
@@ -16165,7 +16212,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="7" t="s">
@@ -16178,7 +16225,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="7" t="s">
@@ -16191,7 +16238,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="7" t="s">
@@ -16204,7 +16251,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7" t="s">
@@ -16217,7 +16264,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7" t="s">
@@ -16230,7 +16277,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="7" t="s">
@@ -16243,7 +16290,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
@@ -16256,7 +16303,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
@@ -16269,7 +16316,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
@@ -16282,7 +16329,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
@@ -16295,7 +16342,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
@@ -16308,7 +16355,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
@@ -16321,7 +16368,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
@@ -16334,7 +16381,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
@@ -16347,7 +16394,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
@@ -16360,7 +16407,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
@@ -16373,7 +16420,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
@@ -16386,7 +16433,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
@@ -16399,7 +16446,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
@@ -16412,11 +16459,11 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E122" s="5"/>
     </row>
@@ -16426,7 +16473,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
@@ -16439,11 +16486,11 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -16452,11 +16499,11 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -16465,7 +16512,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="s">
@@ -16478,11 +16525,11 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -16491,11 +16538,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E128" s="5"/>
     </row>
@@ -16505,11 +16552,11 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -16518,11 +16565,11 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -16531,11 +16578,11 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -16544,11 +16591,11 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -16557,11 +16604,11 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -16570,11 +16617,11 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E134" s="5"/>
     </row>
@@ -16584,11 +16631,11 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16597,11 +16644,11 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -16610,11 +16657,11 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -16623,11 +16670,11 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16636,7 +16683,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
@@ -16649,11 +16696,11 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16662,11 +16709,11 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -16675,11 +16722,11 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
-        <v>595</v>
+        <v>537</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16688,14 +16735,11 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -16704,14 +16748,11 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -16720,11 +16761,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6" t="s">
-        <v>543</v>
+        <v>601</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -16733,11 +16777,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6" t="s">
-        <v>544</v>
+        <v>549</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -16746,11 +16793,11 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -16759,11 +16806,11 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -16772,11 +16819,11 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -16785,11 +16832,11 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -16798,50 +16845,52 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="5">
+      <c r="A152" s="6">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="E152" s="5"/>
+      <c r="B152" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="3">
+      <c r="A153" s="6">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>105</v>
+      <c r="B153" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="3">
+      <c r="A154" s="5">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>578</v>
-      </c>
+      <c r="B154" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3">
@@ -16849,51 +16898,51 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D155" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="5">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="5">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="6">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="6">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="6">
@@ -16901,7 +16950,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -16913,7 +16962,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -16925,15 +16974,11 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C161" s="6"/>
-      <c r="D161" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>469</v>
-      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="6">
@@ -16941,9 +16986,11 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="6">
@@ -16951,11 +16998,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -16964,15 +17014,9 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C164" s="6"/>
-      <c r="D164" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6">
@@ -16980,14 +17024,11 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -16996,14 +17037,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -17012,14 +17053,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -17028,11 +17069,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -17041,11 +17085,14 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C169" s="6"/>
+      <c r="D169" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="E169" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -17054,14 +17101,11 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -17070,30 +17114,27 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C171" s="6"/>
-      <c r="D171" s="3" t="s">
-        <v>483</v>
-      </c>
       <c r="E171" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="5">
+      <c r="A172" s="6">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>485</v>
+      <c r="B172" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -17102,14 +17143,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C173" s="6"/>
-      <c r="D173" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>486</v>
+      <c r="D173" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -17118,11 +17159,15 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="6">
@@ -17130,37 +17175,37 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C175" s="6"/>
+      <c r="D175" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="B176" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="5">
+      <c r="A177" s="6">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+      <c r="B177" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="6">
@@ -17168,37 +17213,37 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C178" s="6"/>
+      <c r="D178" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="B179" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="5">
+      <c r="A180" s="6">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
+      <c r="B180" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C180" s="6"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="6">
@@ -17206,37 +17251,37 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C181" s="6"/>
+      <c r="D181" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="6">
+      <c r="A182" s="5">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C182" s="6"/>
-      <c r="D182" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="B182" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="5">
+      <c r="A183" s="6">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="B183" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C183" s="6"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="6">
@@ -17244,23 +17289,51 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C184" s="6"/>
+      <c r="D184" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="6">
+      <c r="A185" s="5">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="7" t="s">
+      <c r="B185" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="6">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C186" s="6"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="6">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E187" s="7" t="s">
         <v>486</v>
       </c>
     </row>
@@ -17275,7 +17348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719863C-01F4-477F-A560-5CCC2301FB87}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>

--- a/doc/input.xlsx
+++ b/doc/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiida\github\builder\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B1C12-E9A5-4E4E-BBED-0CA7183E35B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692ACC04-AC2D-4476-AD2F-F750116FA99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="816" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="637">
   <si>
     <t>classId</t>
     <phoneticPr fontId="1"/>
@@ -3284,6 +3284,14 @@
     <rPh sb="9" eb="11">
       <t>ニュウシュツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parent == null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5633,7 +5641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F7B46-C5DA-4B16-AA9F-5D00A52EB62D}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -6844,10 +6852,10 @@
   <dimension ref="A1:X187"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -17346,9 +17354,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719863C-01F4-477F-A560-5CCC2301FB87}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -17500,6 +17510,21 @@
       </c>
       <c r="F7" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>Class!$A$18</f>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D8" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
